--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -58,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -516,14 +515,14 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>category</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
           <t>eligible</t>
@@ -536,17 +535,17 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>timediff</t>
+          <t>pred.late</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>amountdiff</t>
+          <t>pred.amount</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>suppdiff</t>
+          <t>pred.supplier</t>
         </is>
       </c>
     </row>
@@ -611,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -622,13 +621,13 @@
       <c r="S2" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="T2" s="3" t="n">
-        <v>-5</v>
+      <c r="T2" t="n">
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="b">
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -693,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -704,13 +703,13 @@
       <c r="S3" s="2" t="n">
         <v>44359</v>
       </c>
-      <c r="T3" s="3" t="n">
-        <v>-5</v>
+      <c r="T3" t="n">
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="b">
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -786,13 +785,13 @@
       <c r="S4" s="2" t="n">
         <v>43398</v>
       </c>
-      <c r="T4" s="3" t="n">
-        <v>-25</v>
+      <c r="T4" t="n">
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -868,13 +867,13 @@
       <c r="S5" s="2" t="n">
         <v>44740</v>
       </c>
-      <c r="T5" s="3" t="n">
-        <v>-128</v>
+      <c r="T5" t="n">
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="b">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -939,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -950,13 +949,13 @@
       <c r="S6" s="2" t="n">
         <v>44508</v>
       </c>
-      <c r="T6" s="3" t="n">
-        <v>-21</v>
+      <c r="T6" t="n">
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
-      <c r="V6" t="b">
+      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1028,13 +1027,13 @@
       <c r="S7" s="2" t="n">
         <v>43398</v>
       </c>
-      <c r="T7" s="3" t="n">
-        <v>-86</v>
+      <c r="T7" t="n">
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="b">
+      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1106,13 +1105,13 @@
       <c r="S8" s="2" t="n">
         <v>44740</v>
       </c>
-      <c r="T8" s="3" t="n">
-        <v>-145</v>
+      <c r="T8" t="n">
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
-      <c r="V8" t="b">
+      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1184,13 +1183,13 @@
       <c r="S9" s="2" t="n">
         <v>44508</v>
       </c>
-      <c r="T9" s="3" t="n">
-        <v>-21</v>
+      <c r="T9" t="n">
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="b">
+      <c r="V9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1262,13 +1261,13 @@
       <c r="S10" s="2" t="n">
         <v>43816</v>
       </c>
-      <c r="T10" s="3" t="n">
-        <v>-3</v>
+      <c r="T10" t="n">
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
-      <c r="V10" t="b">
+      <c r="V10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1340,13 +1339,13 @@
       <c r="S11" s="2" t="n">
         <v>43608</v>
       </c>
-      <c r="T11" s="3" t="n">
-        <v>-18</v>
+      <c r="T11" t="n">
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
-      <c r="V11" t="b">
+      <c r="V11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1418,13 +1417,13 @@
       <c r="S12" s="2" t="n">
         <v>44468</v>
       </c>
-      <c r="T12" s="3" t="n">
-        <v>-103</v>
+      <c r="T12" t="n">
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
-      <c r="V12" t="b">
+      <c r="V12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1496,13 +1495,13 @@
       <c r="S13" s="2" t="n">
         <v>44164</v>
       </c>
-      <c r="T13" s="3" t="n">
-        <v>-113</v>
+      <c r="T13" t="n">
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
-      <c r="V13" t="b">
+      <c r="V13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1574,13 +1573,13 @@
       <c r="S14" s="2" t="n">
         <v>43394</v>
       </c>
-      <c r="T14" s="3" t="n">
-        <v>-60</v>
+      <c r="T14" t="n">
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
-      <c r="V14" t="b">
+      <c r="V14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,13 +1655,13 @@
       <c r="S15" s="2" t="n">
         <v>44156</v>
       </c>
-      <c r="T15" s="3" t="n">
-        <v>13</v>
+      <c r="T15" t="n">
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>-192.9644477610802</v>
-      </c>
-      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1738,13 +1737,13 @@
       <c r="S16" s="2" t="n">
         <v>44058</v>
       </c>
-      <c r="T16" s="3" t="n">
-        <v>5</v>
+      <c r="T16" t="n">
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
-      <c r="V16" t="b">
+      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1816,13 +1815,13 @@
       <c r="S17" s="2" t="n">
         <v>44704</v>
       </c>
-      <c r="T17" s="3" t="n">
-        <v>-136</v>
+      <c r="T17" t="n">
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
-      <c r="V17" t="b">
+      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1894,13 +1893,13 @@
       <c r="S18" s="2" t="n">
         <v>43531</v>
       </c>
-      <c r="T18" s="3" t="n">
-        <v>-132</v>
+      <c r="T18" t="n">
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
-      <c r="V18" t="b">
+      <c r="V18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1976,13 +1975,13 @@
       <c r="S19" s="2" t="n">
         <v>43735</v>
       </c>
-      <c r="T19" s="3" t="n">
-        <v>-119</v>
+      <c r="T19" t="n">
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-2886.515768760009</v>
-      </c>
-      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2054,13 +2053,13 @@
       <c r="S20" s="2" t="n">
         <v>44723</v>
       </c>
-      <c r="T20" s="3" t="n">
-        <v>-15</v>
+      <c r="T20" t="n">
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
-      <c r="V20" t="b">
+      <c r="V20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2125,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2136,13 +2135,13 @@
       <c r="S21" s="2" t="n">
         <v>44513</v>
       </c>
-      <c r="T21" s="3" t="n">
-        <v>-87</v>
+      <c r="T21" t="n">
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
-      <c r="V21" t="b">
+      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,13 +2213,13 @@
       <c r="S22" s="2" t="n">
         <v>44422</v>
       </c>
-      <c r="T22" s="3" t="n">
-        <v>-60</v>
+      <c r="T22" t="n">
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V22" t="b">
+      <c r="V22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2285,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2296,13 +2295,13 @@
       <c r="S23" s="2" t="n">
         <v>44668</v>
       </c>
-      <c r="T23" s="3" t="n">
-        <v>-32</v>
+      <c r="T23" t="n">
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.01000000000021828</v>
-      </c>
-      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2367,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2378,13 +2377,13 @@
       <c r="S24" s="2" t="n">
         <v>44990</v>
       </c>
-      <c r="T24" s="3" t="n">
-        <v>-133</v>
+      <c r="T24" t="n">
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
-      <c r="V24" t="b">
+      <c r="V24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2456,13 +2455,13 @@
       <c r="S25" s="2" t="n">
         <v>44816</v>
       </c>
-      <c r="T25" s="3" t="n">
-        <v>-133</v>
+      <c r="T25" t="n">
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
-      <c r="V25" t="b">
+      <c r="V25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2527,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2538,13 +2537,13 @@
       <c r="S26" s="2" t="n">
         <v>43319</v>
       </c>
-      <c r="T26" s="3" t="n">
-        <v>-60</v>
+      <c r="T26" t="n">
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01000000000021828</v>
-      </c>
-      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2616,13 +2615,13 @@
       <c r="S27" s="2" t="n">
         <v>43857</v>
       </c>
-      <c r="T27" s="3" t="n">
-        <v>-112</v>
+      <c r="T27" t="n">
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
-      <c r="V27" t="b">
+      <c r="V27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2698,13 +2697,13 @@
       <c r="S28" s="2" t="n">
         <v>43445</v>
       </c>
-      <c r="T28" s="3" t="n">
-        <v>-157</v>
+      <c r="T28" t="n">
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
-      <c r="V28" t="b">
+      <c r="V28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2776,13 +2775,13 @@
       <c r="S29" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="T29" s="3" t="n">
-        <v>-47</v>
+      <c r="T29" t="n">
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>982.5633497839708</v>
-      </c>
-      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2854,13 +2853,13 @@
       <c r="S30" s="2" t="n">
         <v>43430</v>
       </c>
-      <c r="T30" s="3" t="n">
-        <v>-43</v>
+      <c r="T30" t="n">
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
-      <c r="V30" t="b">
+      <c r="V30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2925,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -2936,13 +2935,13 @@
       <c r="S31" s="2" t="n">
         <v>43760</v>
       </c>
-      <c r="T31" s="3" t="n">
-        <v>-50</v>
+      <c r="T31" t="n">
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09999999999990905</v>
-      </c>
-      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3007,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3018,13 +3017,13 @@
       <c r="S32" s="2" t="n">
         <v>44845</v>
       </c>
-      <c r="T32" s="3" t="n">
-        <v>-130</v>
+      <c r="T32" t="n">
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-10</v>
-      </c>
-      <c r="V32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,13 +3099,13 @@
       <c r="S33" s="2" t="n">
         <v>45083</v>
       </c>
-      <c r="T33" s="3" t="n">
-        <v>-110</v>
+      <c r="T33" t="n">
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="b">
+      <c r="V33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3171,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3182,13 +3181,13 @@
       <c r="S34" s="2" t="n">
         <v>45031</v>
       </c>
-      <c r="T34" s="3" t="n">
-        <v>-168</v>
+      <c r="T34" t="n">
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
-      <c r="V34" t="b">
+      <c r="V34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3260,13 +3259,13 @@
       <c r="S35" s="2" t="n">
         <v>43840</v>
       </c>
-      <c r="T35" s="3" t="n">
-        <v>-147</v>
+      <c r="T35" t="n">
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
-      <c r="V35" t="b">
+      <c r="V35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3338,13 +3337,13 @@
       <c r="S36" s="2" t="n">
         <v>44145</v>
       </c>
-      <c r="T36" s="3" t="n">
-        <v>-51</v>
+      <c r="T36" t="n">
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
-      <c r="V36" t="b">
+      <c r="V36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3409,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3420,13 +3419,13 @@
       <c r="S37" s="2" t="n">
         <v>43318</v>
       </c>
-      <c r="T37" s="3" t="n">
-        <v>-116</v>
+      <c r="T37" t="n">
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-100</v>
-      </c>
-      <c r="V37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,13 +3501,13 @@
       <c r="S38" s="2" t="n">
         <v>44468</v>
       </c>
-      <c r="T38" s="3" t="n">
-        <v>-148</v>
+      <c r="T38" t="n">
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
-      <c r="V38" t="b">
+      <c r="V38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,13 +3579,13 @@
       <c r="S39" s="2" t="n">
         <v>43797</v>
       </c>
-      <c r="T39" s="3" t="n">
-        <v>-37</v>
+      <c r="T39" t="n">
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
-      <c r="V39" t="b">
+      <c r="V39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,13 +3657,13 @@
       <c r="S40" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="T40" s="3" t="n">
-        <v>-98</v>
+      <c r="T40" t="n">
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
-      <c r="V40" t="b">
+      <c r="V40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,13 +3735,13 @@
       <c r="S41" s="2" t="n">
         <v>44880</v>
       </c>
-      <c r="T41" s="3" t="n">
-        <v>-80</v>
+      <c r="T41" t="n">
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
-      <c r="V41" t="b">
+      <c r="V41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3818,13 +3817,13 @@
       <c r="S42" s="2" t="n">
         <v>43869</v>
       </c>
-      <c r="T42" s="3" t="n">
-        <v>-120</v>
+      <c r="T42" t="n">
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
-      <c r="V42" t="b">
+      <c r="V42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,13 +3895,13 @@
       <c r="S43" s="2" t="n">
         <v>44592</v>
       </c>
-      <c r="T43" s="3" t="n">
-        <v>-20</v>
+      <c r="T43" t="n">
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
-      <c r="V43" t="b">
+      <c r="V43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3978,13 +3977,13 @@
       <c r="S44" s="2" t="n">
         <v>43859</v>
       </c>
-      <c r="T44" s="3" t="n">
-        <v>5</v>
+      <c r="T44" t="n">
+        <v>1</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
-      <c r="V44" t="b">
+      <c r="V44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,13 +4055,13 @@
       <c r="S45" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="T45" s="3" t="n">
-        <v>-170</v>
+      <c r="T45" t="n">
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
-      <c r="V45" t="b">
+      <c r="V45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4138,13 +4137,13 @@
       <c r="S46" s="2" t="n">
         <v>43430</v>
       </c>
-      <c r="T46" s="3" t="n">
-        <v>-55</v>
+      <c r="T46" t="n">
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
-      </c>
-      <c r="V46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
         <v>1</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -4220,13 +4219,13 @@
       <c r="S47" s="2" t="n">
         <v>44916</v>
       </c>
-      <c r="T47" s="3" t="n">
-        <v>-169</v>
+      <c r="T47" t="n">
+        <v>0</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
       </c>
-      <c r="V47" t="b">
+      <c r="V47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4298,13 +4297,13 @@
       <c r="S48" s="2" t="n">
         <v>43912</v>
       </c>
-      <c r="T48" s="3" t="n">
-        <v>-767</v>
+      <c r="T48" t="n">
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
       </c>
-      <c r="V48" t="b">
+      <c r="V48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4376,13 +4375,13 @@
       <c r="S49" s="2" t="n">
         <v>44846</v>
       </c>
-      <c r="T49" s="3" t="n">
-        <v>-143</v>
+      <c r="T49" t="n">
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
       </c>
-      <c r="V49" t="b">
+      <c r="V49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4454,13 +4453,13 @@
       <c r="S50" s="2" t="n">
         <v>44649</v>
       </c>
-      <c r="T50" s="3" t="n">
-        <v>-86</v>
+      <c r="T50" t="n">
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
       </c>
-      <c r="V50" t="b">
+      <c r="V50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4536,13 +4535,13 @@
       <c r="S51" s="2" t="n">
         <v>43796</v>
       </c>
-      <c r="T51" s="3" t="n">
-        <v>-94</v>
+      <c r="T51" t="n">
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>7</v>
-      </c>
-      <c r="V51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4614,13 +4613,13 @@
       <c r="S52" s="2" t="n">
         <v>43994</v>
       </c>
-      <c r="T52" s="3" t="n">
-        <v>-160</v>
+      <c r="T52" t="n">
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
       </c>
-      <c r="V52" t="b">
+      <c r="V52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4692,13 +4691,13 @@
       <c r="S53" s="2" t="n">
         <v>44176</v>
       </c>
-      <c r="T53" s="3" t="n">
-        <v>-132</v>
+      <c r="T53" t="n">
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
       </c>
-      <c r="V53" t="b">
+      <c r="V53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4770,13 +4769,13 @@
       <c r="S54" s="2" t="n">
         <v>44744</v>
       </c>
-      <c r="T54" s="3" t="n">
-        <v>-85</v>
+      <c r="T54" t="n">
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
       </c>
-      <c r="V54" t="b">
+      <c r="V54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4852,13 +4851,13 @@
       <c r="S55" s="2" t="n">
         <v>44134</v>
       </c>
-      <c r="T55" s="3" t="n">
-        <v>7</v>
+      <c r="T55" t="n">
+        <v>1</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
-      <c r="V55" t="b">
+      <c r="V55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,13 +4929,13 @@
       <c r="S56" s="2" t="n">
         <v>45069</v>
       </c>
-      <c r="T56" s="3" t="n">
-        <v>-37</v>
+      <c r="T56" t="n">
+        <v>0</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
       </c>
-      <c r="V56" t="b">
+      <c r="V56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5012,13 +5011,13 @@
       <c r="S57" s="2" t="n">
         <v>44277</v>
       </c>
-      <c r="T57" s="3" t="n">
-        <v>-128</v>
+      <c r="T57" t="n">
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
       </c>
-      <c r="V57" t="b">
+      <c r="V57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5090,13 +5089,13 @@
       <c r="S58" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="T58" s="3" t="n">
-        <v>-9</v>
+      <c r="T58" t="n">
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
       </c>
-      <c r="V58" t="b">
+      <c r="V58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5168,13 +5167,13 @@
       <c r="S59" s="2" t="n">
         <v>43723</v>
       </c>
-      <c r="T59" s="3" t="n">
-        <v>-8</v>
+      <c r="T59" t="n">
+        <v>0</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
       </c>
-      <c r="V59" t="b">
+      <c r="V59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5239,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
         <v>1</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -5250,13 +5249,13 @@
       <c r="S60" s="2" t="n">
         <v>44603</v>
       </c>
-      <c r="T60" s="3" t="n">
-        <v>14</v>
+      <c r="T60" t="n">
+        <v>1</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
       </c>
-      <c r="V60" t="b">
+      <c r="V60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5328,13 +5327,13 @@
       <c r="S61" s="2" t="n">
         <v>44806</v>
       </c>
-      <c r="T61" s="3" t="n">
-        <v>-1</v>
+      <c r="T61" t="n">
+        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
       </c>
-      <c r="V61" t="b">
+      <c r="V61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5410,13 +5409,13 @@
       <c r="S62" s="2" t="n">
         <v>43421</v>
       </c>
-      <c r="T62" s="3" t="n">
-        <v>-111</v>
+      <c r="T62" t="n">
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
       </c>
-      <c r="V62" t="b">
+      <c r="V62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5488,13 +5487,13 @@
       <c r="S63" s="2" t="n">
         <v>44587</v>
       </c>
-      <c r="T63" s="3" t="n">
-        <v>-32</v>
+      <c r="T63" t="n">
+        <v>0</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
       </c>
-      <c r="V63" t="b">
+      <c r="V63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5566,13 +5565,13 @@
       <c r="S64" s="2" t="n">
         <v>44151</v>
       </c>
-      <c r="T64" s="3" t="n">
-        <v>-32</v>
+      <c r="T64" t="n">
+        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
       </c>
-      <c r="V64" t="b">
+      <c r="V64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5648,13 +5647,13 @@
       <c r="S65" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="T65" s="3" t="n">
-        <v>-101</v>
+      <c r="T65" t="n">
+        <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>-9</v>
-      </c>
-      <c r="V65" t="b">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5726,13 +5725,13 @@
       <c r="S66" s="2" t="n">
         <v>44535</v>
       </c>
-      <c r="T66" s="3" t="n">
-        <v>-92</v>
+      <c r="T66" t="n">
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
       </c>
-      <c r="V66" t="b">
+      <c r="V66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5808,13 +5807,13 @@
       <c r="S67" s="2" t="n">
         <v>43437</v>
       </c>
-      <c r="T67" s="3" t="n">
-        <v>-67</v>
+      <c r="T67" t="n">
+        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
       </c>
-      <c r="V67" t="b">
+      <c r="V67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5890,13 +5889,13 @@
       <c r="S68" s="2" t="n">
         <v>43907</v>
       </c>
-      <c r="T68" s="3" t="n">
-        <v>11</v>
+      <c r="T68" t="n">
+        <v>1</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
       </c>
-      <c r="V68" t="b">
+      <c r="V68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,10 +5960,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>1</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -5972,13 +5971,13 @@
       <c r="S69" s="2" t="n">
         <v>44892</v>
       </c>
-      <c r="T69" s="3" t="n">
-        <v>-117</v>
+      <c r="T69" t="n">
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
       </c>
-      <c r="V69" t="b">
+      <c r="V69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,13 +6049,13 @@
       <c r="S70" s="2" t="n">
         <v>44299</v>
       </c>
-      <c r="T70" s="3" t="n">
-        <v>-127</v>
+      <c r="T70" t="n">
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
       </c>
-      <c r="V70" t="b">
+      <c r="V70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,13 +6127,13 @@
       <c r="S71" s="2" t="n">
         <v>44764</v>
       </c>
-      <c r="T71" s="3" t="n">
-        <v>-57</v>
+      <c r="T71" t="n">
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
-      <c r="V71" t="b">
+      <c r="V71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,13 +6205,13 @@
       <c r="S72" s="2" t="n">
         <v>43603</v>
       </c>
-      <c r="T72" s="3" t="n">
-        <v>-135</v>
+      <c r="T72" t="n">
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
-      <c r="V72" t="b">
+      <c r="V72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6284,13 +6283,13 @@
       <c r="S73" s="2" t="n">
         <v>43319</v>
       </c>
-      <c r="T73" s="3" t="n">
-        <v>-89</v>
+      <c r="T73" t="n">
+        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
       </c>
-      <c r="V73" t="b">
+      <c r="V73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6355,10 +6354,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
         <v>1</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -6366,13 +6365,13 @@
       <c r="S74" s="2" t="n">
         <v>44055</v>
       </c>
-      <c r="T74" s="3" t="n">
-        <v>-39</v>
+      <c r="T74" t="n">
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
       </c>
-      <c r="V74" t="b">
+      <c r="V74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6444,13 +6443,13 @@
       <c r="S75" s="2" t="n">
         <v>44643</v>
       </c>
-      <c r="T75" s="3" t="n">
-        <v>-158</v>
+      <c r="T75" t="n">
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
       </c>
-      <c r="V75" t="b">
+      <c r="V75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6522,13 +6521,13 @@
       <c r="S76" s="2" t="n">
         <v>43728</v>
       </c>
-      <c r="T76" s="3" t="n">
-        <v>-101</v>
+      <c r="T76" t="n">
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
       </c>
-      <c r="V76" t="b">
+      <c r="V76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6604,13 +6603,13 @@
       <c r="S77" s="2" t="n">
         <v>44259</v>
       </c>
-      <c r="T77" s="3" t="n">
+      <c r="T77" t="n">
         <v>1</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
       </c>
-      <c r="V77" t="b">
+      <c r="V77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6682,13 +6681,13 @@
       <c r="S78" s="2" t="n">
         <v>43746</v>
       </c>
-      <c r="T78" s="3" t="n">
-        <v>-169</v>
+      <c r="T78" t="n">
+        <v>0</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
       </c>
-      <c r="V78" t="b">
+      <c r="V78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6760,13 +6759,13 @@
       <c r="S79" s="2" t="n">
         <v>43809</v>
       </c>
-      <c r="T79" s="3" t="n">
-        <v>-153</v>
+      <c r="T79" t="n">
+        <v>0</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
       </c>
-      <c r="V79" t="b">
+      <c r="V79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6838,13 +6837,13 @@
       <c r="S80" s="2" t="n">
         <v>44159</v>
       </c>
-      <c r="T80" s="3" t="n">
-        <v>-43</v>
+      <c r="T80" t="n">
+        <v>0</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
       </c>
-      <c r="V80" t="b">
+      <c r="V80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6916,13 +6915,13 @@
       <c r="S81" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="T81" s="3" t="n">
-        <v>-45</v>
+      <c r="T81" t="n">
+        <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>222.7735805266002</v>
-      </c>
-      <c r="V81" t="b">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6994,13 +6993,13 @@
       <c r="S82" s="2" t="n">
         <v>43703</v>
       </c>
-      <c r="T82" s="3" t="n">
-        <v>-46</v>
+      <c r="T82" t="n">
+        <v>0</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
       </c>
-      <c r="V82" t="b">
+      <c r="V82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7072,13 +7071,13 @@
       <c r="S83" s="2" t="n">
         <v>43345</v>
       </c>
-      <c r="T83" s="3" t="n">
-        <v>-135</v>
+      <c r="T83" t="n">
+        <v>0</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
       </c>
-      <c r="V83" t="b">
+      <c r="V83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7150,13 +7149,13 @@
       <c r="S84" s="2" t="n">
         <v>44129</v>
       </c>
-      <c r="T84" s="3" t="n">
-        <v>-139</v>
+      <c r="T84" t="n">
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
       </c>
-      <c r="V84" t="b">
+      <c r="V84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,10 +7220,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
         <v>1</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -7232,13 +7231,13 @@
       <c r="S85" s="2" t="n">
         <v>44672</v>
       </c>
-      <c r="T85" s="3" t="n">
-        <v>-173</v>
+      <c r="T85" t="n">
+        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
       </c>
-      <c r="V85" t="b">
+      <c r="V85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7310,13 +7309,13 @@
       <c r="S86" s="2" t="n">
         <v>44371</v>
       </c>
-      <c r="T86" s="3" t="n">
-        <v>-62</v>
+      <c r="T86" t="n">
+        <v>0</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
       </c>
-      <c r="V86" t="b">
+      <c r="V86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7388,13 +7387,13 @@
       <c r="S87" s="2" t="n">
         <v>44309</v>
       </c>
-      <c r="T87" s="3" t="n">
-        <v>-92</v>
+      <c r="T87" t="n">
+        <v>0</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
       </c>
-      <c r="V87" t="b">
+      <c r="V87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7466,13 +7465,13 @@
       <c r="S88" s="2" t="n">
         <v>45001</v>
       </c>
-      <c r="T88" s="3" t="n">
-        <v>-153</v>
+      <c r="T88" t="n">
+        <v>0</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
       </c>
-      <c r="V88" t="b">
+      <c r="V88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7544,13 +7543,13 @@
       <c r="S89" s="2" t="n">
         <v>44270</v>
       </c>
-      <c r="T89" s="3" t="n">
-        <v>-17</v>
+      <c r="T89" t="n">
+        <v>0</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
       </c>
-      <c r="V89" t="b">
+      <c r="V89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7622,13 +7621,13 @@
       <c r="S90" s="2" t="n">
         <v>44830</v>
       </c>
-      <c r="T90" s="3" t="n">
-        <v>-169</v>
+      <c r="T90" t="n">
+        <v>0</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
       </c>
-      <c r="V90" t="b">
+      <c r="V90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,13 +7699,13 @@
       <c r="S91" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="T91" s="3" t="n">
-        <v>-41</v>
+      <c r="T91" t="n">
+        <v>0</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
       </c>
-      <c r="V91" t="b">
+      <c r="V91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7782,13 +7781,13 @@
       <c r="S92" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="T92" s="3" t="n">
+      <c r="T92" t="n">
         <v>1</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
       </c>
-      <c r="V92" t="b">
+      <c r="V92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7860,13 +7859,13 @@
       <c r="S93" s="2" t="n">
         <v>44627</v>
       </c>
-      <c r="T93" s="3" t="n">
-        <v>-28</v>
+      <c r="T93" t="n">
+        <v>0</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
       </c>
-      <c r="V93" t="b">
+      <c r="V93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7931,10 +7930,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
         <v>1</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -7942,13 +7941,13 @@
       <c r="S94" s="2" t="n">
         <v>44359</v>
       </c>
-      <c r="T94" s="3" t="n">
-        <v>-138</v>
+      <c r="T94" t="n">
+        <v>0</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
-      <c r="V94" t="b">
+      <c r="V94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8020,13 +8019,13 @@
       <c r="S95" s="2" t="n">
         <v>44101</v>
       </c>
-      <c r="T95" s="3" t="n">
-        <v>-21</v>
+      <c r="T95" t="n">
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
       </c>
-      <c r="V95" t="b">
+      <c r="V95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8098,13 +8097,13 @@
       <c r="S96" s="2" t="n">
         <v>43732</v>
       </c>
-      <c r="T96" s="3" t="n">
-        <v>-175</v>
+      <c r="T96" t="n">
+        <v>0</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
       </c>
-      <c r="V96" t="b">
+      <c r="V96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8180,13 +8179,13 @@
       <c r="S97" s="2" t="n">
         <v>44589</v>
       </c>
-      <c r="T97" s="3" t="n">
-        <v>-66</v>
+      <c r="T97" t="n">
+        <v>0</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
       </c>
-      <c r="V97" t="b">
+      <c r="V97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8258,13 +8257,13 @@
       <c r="S98" s="2" t="n">
         <v>44008</v>
       </c>
-      <c r="T98" s="3" t="n">
-        <v>-80</v>
+      <c r="T98" t="n">
+        <v>0</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
       </c>
-      <c r="V98" t="b">
+      <c r="V98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8336,13 +8335,13 @@
       <c r="S99" s="2" t="n">
         <v>44170</v>
       </c>
-      <c r="T99" s="3" t="n">
-        <v>-17</v>
+      <c r="T99" t="n">
+        <v>0</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
       </c>
-      <c r="V99" t="b">
+      <c r="V99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8414,13 +8413,13 @@
       <c r="S100" s="2" t="n">
         <v>43694</v>
       </c>
-      <c r="T100" s="3" t="n">
-        <v>-149</v>
+      <c r="T100" t="n">
+        <v>0</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
       </c>
-      <c r="V100" t="b">
+      <c r="V100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8496,13 +8495,13 @@
       <c r="S101" s="2" t="n">
         <v>44856</v>
       </c>
-      <c r="T101" s="3" t="n">
-        <v>3</v>
+      <c r="T101" t="n">
+        <v>1</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
       </c>
-      <c r="V101" t="b">
+      <c r="V101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8574,13 +8573,13 @@
       <c r="S102" s="2" t="n">
         <v>44970</v>
       </c>
-      <c r="T102" s="3" t="n">
-        <v>-161</v>
+      <c r="T102" t="n">
+        <v>0</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
       </c>
-      <c r="V102" t="b">
+      <c r="V102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8656,13 +8655,13 @@
       <c r="S103" s="2" t="n">
         <v>44954</v>
       </c>
-      <c r="T103" s="3" t="n">
-        <v>9</v>
+      <c r="T103" t="n">
+        <v>1</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
       </c>
-      <c r="V103" t="b">
+      <c r="V103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8734,13 +8733,13 @@
       <c r="S104" s="2" t="n">
         <v>44474</v>
       </c>
-      <c r="T104" s="3" t="n">
-        <v>-85</v>
+      <c r="T104" t="n">
+        <v>0</v>
       </c>
       <c r="U104" t="n">
         <v>0</v>
       </c>
-      <c r="V104" t="b">
+      <c r="V104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8812,13 +8811,13 @@
       <c r="S105" s="2" t="n">
         <v>43323</v>
       </c>
-      <c r="T105" s="3" t="n">
-        <v>-145</v>
+      <c r="T105" t="n">
+        <v>0</v>
       </c>
       <c r="U105" t="n">
         <v>0</v>
       </c>
-      <c r="V105" t="b">
+      <c r="V105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8890,13 +8889,13 @@
       <c r="S106" s="2" t="n">
         <v>43974</v>
       </c>
-      <c r="T106" s="3" t="n">
-        <v>-143</v>
+      <c r="T106" t="n">
+        <v>0</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
       </c>
-      <c r="V106" t="b">
+      <c r="V106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8961,10 +8960,10 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
         <v>1</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -8972,13 +8971,13 @@
       <c r="S107" s="2" t="n">
         <v>44736</v>
       </c>
-      <c r="T107" s="3" t="n">
-        <v>-92</v>
+      <c r="T107" t="n">
+        <v>0</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
       </c>
-      <c r="V107" t="b">
+      <c r="V107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9050,13 +9049,13 @@
       <c r="S108" s="2" t="n">
         <v>44106</v>
       </c>
-      <c r="T108" s="3" t="n">
-        <v>-2</v>
+      <c r="T108" t="n">
+        <v>0</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
       </c>
-      <c r="V108" t="b">
+      <c r="V108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9128,13 +9127,13 @@
       <c r="S109" s="2" t="n">
         <v>44717</v>
       </c>
-      <c r="T109" s="3" t="n">
-        <v>-113</v>
+      <c r="T109" t="n">
+        <v>0</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
       </c>
-      <c r="V109" t="b">
+      <c r="V109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9206,13 +9205,13 @@
       <c r="S110" s="2" t="n">
         <v>44849</v>
       </c>
-      <c r="T110" s="3" t="n">
-        <v>-176</v>
+      <c r="T110" t="n">
+        <v>0</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
       </c>
-      <c r="V110" t="b">
+      <c r="V110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9284,13 +9283,13 @@
       <c r="S111" s="2" t="n">
         <v>43439</v>
       </c>
-      <c r="T111" s="3" t="n">
-        <v>-16</v>
+      <c r="T111" t="n">
+        <v>0</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
       </c>
-      <c r="V111" t="b">
+      <c r="V111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9366,13 +9365,13 @@
       <c r="S112" s="2" t="n">
         <v>43842</v>
       </c>
-      <c r="T112" s="3" t="n">
-        <v>4</v>
+      <c r="T112" t="n">
+        <v>1</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
       </c>
-      <c r="V112" t="b">
+      <c r="V112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9444,13 +9443,13 @@
       <c r="S113" s="2" t="n">
         <v>44423</v>
       </c>
-      <c r="T113" s="3" t="n">
-        <v>-173</v>
+      <c r="T113" t="n">
+        <v>0</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>
       </c>
-      <c r="V113" t="b">
+      <c r="V113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9522,13 +9521,13 @@
       <c r="S114" s="2" t="n">
         <v>44952</v>
       </c>
-      <c r="T114" s="3" t="n">
-        <v>-128</v>
+      <c r="T114" t="n">
+        <v>0</v>
       </c>
       <c r="U114" t="n">
         <v>0</v>
       </c>
-      <c r="V114" t="b">
+      <c r="V114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9600,13 +9599,13 @@
       <c r="S115" s="2" t="n">
         <v>44340</v>
       </c>
-      <c r="T115" s="3" t="n">
-        <v>-56</v>
+      <c r="T115" t="n">
+        <v>0</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
       </c>
-      <c r="V115" t="b">
+      <c r="V115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9678,13 +9677,13 @@
       <c r="S116" s="2" t="n">
         <v>44634</v>
       </c>
-      <c r="T116" s="3" t="n">
-        <v>-79</v>
+      <c r="T116" t="n">
+        <v>0</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
       </c>
-      <c r="V116" t="b">
+      <c r="V116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9756,13 +9755,13 @@
       <c r="S117" s="2" t="n">
         <v>43664</v>
       </c>
-      <c r="T117" s="3" t="n">
-        <v>-138</v>
+      <c r="T117" t="n">
+        <v>0</v>
       </c>
       <c r="U117" t="n">
         <v>0</v>
       </c>
-      <c r="V117" t="b">
+      <c r="V117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9834,13 +9833,13 @@
       <c r="S118" s="2" t="n">
         <v>44643</v>
       </c>
-      <c r="T118" s="3" t="n">
-        <v>-91</v>
+      <c r="T118" t="n">
+        <v>0</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
       </c>
-      <c r="V118" t="b">
+      <c r="V118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9912,13 +9911,13 @@
       <c r="S119" s="2" t="n">
         <v>45051</v>
       </c>
-      <c r="T119" s="3" t="n">
-        <v>-64</v>
+      <c r="T119" t="n">
+        <v>0</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
       </c>
-      <c r="V119" t="b">
+      <c r="V119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9990,13 +9989,13 @@
       <c r="S120" s="2" t="n">
         <v>43734</v>
       </c>
-      <c r="T120" s="3" t="n">
-        <v>-168</v>
+      <c r="T120" t="n">
+        <v>0</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
       </c>
-      <c r="V120" t="b">
+      <c r="V120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10068,13 +10067,13 @@
       <c r="S121" s="2" t="n">
         <v>44360</v>
       </c>
-      <c r="T121" s="3" t="n">
-        <v>-86</v>
+      <c r="T121" t="n">
+        <v>0</v>
       </c>
       <c r="U121" t="n">
         <v>0</v>
       </c>
-      <c r="V121" t="b">
+      <c r="V121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10146,13 +10145,13 @@
       <c r="S122" s="2" t="n">
         <v>44928</v>
       </c>
-      <c r="T122" s="3" t="n">
-        <v>-52</v>
+      <c r="T122" t="n">
+        <v>0</v>
       </c>
       <c r="U122" t="n">
         <v>0</v>
       </c>
-      <c r="V122" t="b">
+      <c r="V122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10224,13 +10223,13 @@
       <c r="S123" s="2" t="n">
         <v>45103</v>
       </c>
-      <c r="T123" s="3" t="n">
-        <v>-30</v>
+      <c r="T123" t="n">
+        <v>0</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
       </c>
-      <c r="V123" t="b">
+      <c r="V123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10306,13 +10305,13 @@
       <c r="S124" s="2" t="n">
         <v>44061</v>
       </c>
-      <c r="T124" s="3" t="n">
-        <v>17</v>
+      <c r="T124" t="n">
+        <v>1</v>
       </c>
       <c r="U124" t="n">
         <v>0</v>
       </c>
-      <c r="V124" t="b">
+      <c r="V124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10384,13 +10383,13 @@
       <c r="S125" s="2" t="n">
         <v>43306</v>
       </c>
-      <c r="T125" s="3" t="n">
-        <v>-135</v>
+      <c r="T125" t="n">
+        <v>0</v>
       </c>
       <c r="U125" t="n">
         <v>0</v>
       </c>
-      <c r="V125" t="b">
+      <c r="V125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10462,13 +10461,13 @@
       <c r="S126" s="2" t="n">
         <v>44022</v>
       </c>
-      <c r="T126" s="3" t="n">
-        <v>-6</v>
+      <c r="T126" t="n">
+        <v>0</v>
       </c>
       <c r="U126" t="n">
         <v>0</v>
       </c>
-      <c r="V126" t="b">
+      <c r="V126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10533,10 +10532,10 @@
         <v>0</v>
       </c>
       <c r="P127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
@@ -10544,13 +10543,13 @@
       <c r="S127" s="2" t="n">
         <v>44833</v>
       </c>
-      <c r="T127" s="3" t="n">
-        <v>-61</v>
+      <c r="T127" t="n">
+        <v>0</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
       </c>
-      <c r="V127" t="b">
+      <c r="V127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10622,13 +10621,13 @@
       <c r="S128" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="T128" s="3" t="n">
-        <v>-79</v>
+      <c r="T128" t="n">
+        <v>0</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
       </c>
-      <c r="V128" t="b">
+      <c r="V128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10700,13 +10699,13 @@
       <c r="S129" s="2" t="n">
         <v>43348</v>
       </c>
-      <c r="T129" s="3" t="n">
-        <v>-15</v>
+      <c r="T129" t="n">
+        <v>0</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
       </c>
-      <c r="V129" t="b">
+      <c r="V129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10778,13 +10777,13 @@
       <c r="S130" s="2" t="n">
         <v>44574</v>
       </c>
-      <c r="T130" s="3" t="n">
-        <v>-103</v>
+      <c r="T130" t="n">
+        <v>0</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
       </c>
-      <c r="V130" t="b">
+      <c r="V130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10856,13 +10855,13 @@
       <c r="S131" s="2" t="n">
         <v>44735</v>
       </c>
-      <c r="T131" s="3" t="n">
-        <v>-33</v>
+      <c r="T131" t="n">
+        <v>0</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
       </c>
-      <c r="V131" t="b">
+      <c r="V131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10934,13 +10933,13 @@
       <c r="S132" s="2" t="n">
         <v>43740</v>
       </c>
-      <c r="T132" s="3" t="n">
-        <v>-174</v>
+      <c r="T132" t="n">
+        <v>0</v>
       </c>
       <c r="U132" t="n">
-        <v>187.9252405872303</v>
-      </c>
-      <c r="V132" t="b">
+        <v>0</v>
+      </c>
+      <c r="V132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11012,13 +11011,13 @@
       <c r="S133" s="2" t="n">
         <v>43426</v>
       </c>
-      <c r="T133" s="3" t="n">
-        <v>-3803</v>
+      <c r="T133" t="n">
+        <v>0</v>
       </c>
       <c r="U133" t="n">
         <v>0</v>
       </c>
-      <c r="V133" t="b">
+      <c r="V133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11094,13 +11093,13 @@
       <c r="S134" s="2" t="n">
         <v>43408</v>
       </c>
-      <c r="T134" s="3" t="n">
-        <v>2</v>
+      <c r="T134" t="n">
+        <v>1</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
       </c>
-      <c r="V134" t="b">
+      <c r="V134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11172,13 +11171,13 @@
       <c r="S135" s="2" t="n">
         <v>44216</v>
       </c>
-      <c r="T135" s="3" t="n">
-        <v>-109</v>
+      <c r="T135" t="n">
+        <v>0</v>
       </c>
       <c r="U135" t="n">
         <v>0</v>
       </c>
-      <c r="V135" t="b">
+      <c r="V135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11243,10 +11242,10 @@
         <v>0</v>
       </c>
       <c r="P136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R136" t="n">
         <v>0</v>
@@ -11254,13 +11253,13 @@
       <c r="S136" s="2" t="n">
         <v>43815</v>
       </c>
-      <c r="T136" s="3" t="n">
-        <v>-161</v>
+      <c r="T136" t="n">
+        <v>0</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
       </c>
-      <c r="V136" t="b">
+      <c r="V136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11332,13 +11331,13 @@
       <c r="S137" s="2" t="n">
         <v>43328</v>
       </c>
-      <c r="T137" s="3" t="n">
-        <v>-71</v>
+      <c r="T137" t="n">
+        <v>0</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
       </c>
-      <c r="V137" t="b">
+      <c r="V137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11410,13 +11409,13 @@
       <c r="S138" s="2" t="n">
         <v>44750</v>
       </c>
-      <c r="T138" s="3" t="n">
-        <v>-64</v>
+      <c r="T138" t="n">
+        <v>0</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
       </c>
-      <c r="V138" t="b">
+      <c r="V138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11488,13 +11487,13 @@
       <c r="S139" s="2" t="n">
         <v>43767</v>
       </c>
-      <c r="T139" s="3" t="n">
-        <v>-153</v>
+      <c r="T139" t="n">
+        <v>0</v>
       </c>
       <c r="U139" t="n">
-        <v>245.0064575791062</v>
-      </c>
-      <c r="V139" t="b">
+        <v>0</v>
+      </c>
+      <c r="V139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11566,13 +11565,13 @@
       <c r="S140" s="2" t="n">
         <v>44415</v>
       </c>
-      <c r="T140" s="3" t="n">
-        <v>-57</v>
+      <c r="T140" t="n">
+        <v>0</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
       </c>
-      <c r="V140" t="b">
+      <c r="V140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11644,13 +11643,13 @@
       <c r="S141" s="2" t="n">
         <v>45009</v>
       </c>
-      <c r="T141" s="3" t="n">
-        <v>-48</v>
+      <c r="T141" t="n">
+        <v>0</v>
       </c>
       <c r="U141" t="n">
         <v>0</v>
       </c>
-      <c r="V141" t="b">
+      <c r="V141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11722,13 +11721,13 @@
       <c r="S142" s="2" t="n">
         <v>43788</v>
       </c>
-      <c r="T142" s="3" t="n">
-        <v>-80</v>
+      <c r="T142" t="n">
+        <v>0</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
       </c>
-      <c r="V142" t="b">
+      <c r="V142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11800,13 +11799,13 @@
       <c r="S143" s="2" t="n">
         <v>43873</v>
       </c>
-      <c r="T143" s="3" t="n">
-        <v>-73</v>
+      <c r="T143" t="n">
+        <v>0</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
       </c>
-      <c r="V143" t="b">
+      <c r="V143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11878,13 +11877,13 @@
       <c r="S144" s="2" t="n">
         <v>43673</v>
       </c>
-      <c r="T144" s="3" t="n">
-        <v>-9</v>
+      <c r="T144" t="n">
+        <v>0</v>
       </c>
       <c r="U144" t="n">
         <v>0</v>
       </c>
-      <c r="V144" t="b">
+      <c r="V144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11956,13 +11955,13 @@
       <c r="S145" s="2" t="n">
         <v>44096</v>
       </c>
-      <c r="T145" s="3" t="n">
-        <v>-129</v>
+      <c r="T145" t="n">
+        <v>0</v>
       </c>
       <c r="U145" t="n">
         <v>0</v>
       </c>
-      <c r="V145" t="b">
+      <c r="V145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12038,13 +12037,13 @@
       <c r="S146" s="2" t="n">
         <v>45052</v>
       </c>
-      <c r="T146" s="3" t="n">
-        <v>19</v>
+      <c r="T146" t="n">
+        <v>1</v>
       </c>
       <c r="U146" t="n">
         <v>0</v>
       </c>
-      <c r="V146" t="b">
+      <c r="V146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12116,13 +12115,13 @@
       <c r="S147" s="2" t="n">
         <v>43407</v>
       </c>
-      <c r="T147" s="3" t="n">
-        <v>-74</v>
+      <c r="T147" t="n">
+        <v>0</v>
       </c>
       <c r="U147" t="n">
         <v>0</v>
       </c>
-      <c r="V147" t="b">
+      <c r="V147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12194,13 +12193,13 @@
       <c r="S148" s="2" t="n">
         <v>45014</v>
       </c>
-      <c r="T148" s="3" t="n">
-        <v>-147</v>
+      <c r="T148" t="n">
+        <v>0</v>
       </c>
       <c r="U148" t="n">
         <v>0</v>
       </c>
-      <c r="V148" t="b">
+      <c r="V148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12276,13 +12275,13 @@
       <c r="S149" s="2" t="n">
         <v>44463</v>
       </c>
-      <c r="T149" s="3" t="n">
-        <v>15</v>
+      <c r="T149" t="n">
+        <v>1</v>
       </c>
       <c r="U149" t="n">
         <v>0</v>
       </c>
-      <c r="V149" t="b">
+      <c r="V149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12354,13 +12353,13 @@
       <c r="S150" s="2" t="n">
         <v>44581</v>
       </c>
-      <c r="T150" s="3" t="n">
-        <v>-74</v>
+      <c r="T150" t="n">
+        <v>0</v>
       </c>
       <c r="U150" t="n">
         <v>0</v>
       </c>
-      <c r="V150" t="b">
+      <c r="V150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12432,13 +12431,13 @@
       <c r="S151" s="2" t="n">
         <v>43991</v>
       </c>
-      <c r="T151" s="3" t="n">
-        <v>-76</v>
+      <c r="T151" t="n">
+        <v>0</v>
       </c>
       <c r="U151" t="n">
         <v>0</v>
       </c>
-      <c r="V151" t="b">
+      <c r="V151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12510,13 +12509,13 @@
       <c r="S152" s="2" t="n">
         <v>43993</v>
       </c>
-      <c r="T152" s="3" t="n">
-        <v>-96</v>
+      <c r="T152" t="n">
+        <v>0</v>
       </c>
       <c r="U152" t="n">
         <v>0</v>
       </c>
-      <c r="V152" t="b">
+      <c r="V152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12588,13 +12587,13 @@
       <c r="S153" s="2" t="n">
         <v>44037</v>
       </c>
-      <c r="T153" s="3" t="n">
-        <v>-162</v>
+      <c r="T153" t="n">
+        <v>0</v>
       </c>
       <c r="U153" t="n">
         <v>0</v>
       </c>
-      <c r="V153" t="b">
+      <c r="V153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12666,13 +12665,13 @@
       <c r="S154" s="2" t="n">
         <v>44332</v>
       </c>
-      <c r="T154" s="3" t="n">
-        <v>-174</v>
+      <c r="T154" t="n">
+        <v>0</v>
       </c>
       <c r="U154" t="n">
         <v>0</v>
       </c>
-      <c r="V154" t="b">
+      <c r="V154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12744,13 +12743,13 @@
       <c r="S155" s="2" t="n">
         <v>43796</v>
       </c>
-      <c r="T155" s="3" t="n">
-        <v>-171</v>
+      <c r="T155" t="n">
+        <v>0</v>
       </c>
       <c r="U155" t="n">
         <v>0</v>
       </c>
-      <c r="V155" t="b">
+      <c r="V155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12822,13 +12821,13 @@
       <c r="S156" s="2" t="n">
         <v>43840</v>
       </c>
-      <c r="T156" s="3" t="n">
-        <v>-163</v>
+      <c r="T156" t="n">
+        <v>0</v>
       </c>
       <c r="U156" t="n">
         <v>0</v>
       </c>
-      <c r="V156" t="b">
+      <c r="V156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12893,10 +12892,10 @@
         <v>0</v>
       </c>
       <c r="P157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R157" t="n">
         <v>0</v>
@@ -12904,13 +12903,13 @@
       <c r="S157" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="T157" s="3" t="n">
-        <v>-133</v>
+      <c r="T157" t="n">
+        <v>0</v>
       </c>
       <c r="U157" t="n">
         <v>0</v>
       </c>
-      <c r="V157" t="b">
+      <c r="V157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12982,13 +12981,13 @@
       <c r="S158" s="2" t="n">
         <v>45018</v>
       </c>
-      <c r="T158" s="3" t="n">
-        <v>-163</v>
+      <c r="T158" t="n">
+        <v>0</v>
       </c>
       <c r="U158" t="n">
         <v>0</v>
       </c>
-      <c r="V158" t="b">
+      <c r="V158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13060,13 +13059,13 @@
       <c r="S159" s="2" t="n">
         <v>44720</v>
       </c>
-      <c r="T159" s="3" t="n">
-        <v>-171</v>
+      <c r="T159" t="n">
+        <v>0</v>
       </c>
       <c r="U159" t="n">
         <v>0</v>
       </c>
-      <c r="V159" t="b">
+      <c r="V159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13138,13 +13137,13 @@
       <c r="S160" s="2" t="n">
         <v>44308</v>
       </c>
-      <c r="T160" s="3" t="n">
-        <v>-86</v>
+      <c r="T160" t="n">
+        <v>0</v>
       </c>
       <c r="U160" t="n">
         <v>0</v>
       </c>
-      <c r="V160" t="b">
+      <c r="V160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13216,13 +13215,13 @@
       <c r="S161" s="2" t="n">
         <v>44011</v>
       </c>
-      <c r="T161" s="3" t="n">
-        <v>-136</v>
+      <c r="T161" t="n">
+        <v>0</v>
       </c>
       <c r="U161" t="n">
         <v>0</v>
       </c>
-      <c r="V161" t="b">
+      <c r="V161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13294,13 +13293,13 @@
       <c r="S162" s="2" t="n">
         <v>43620</v>
       </c>
-      <c r="T162" s="3" t="n">
-        <v>-142</v>
+      <c r="T162" t="n">
+        <v>0</v>
       </c>
       <c r="U162" t="n">
         <v>0</v>
       </c>
-      <c r="V162" t="b">
+      <c r="V162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13372,13 +13371,13 @@
       <c r="S163" s="2" t="n">
         <v>44941</v>
       </c>
-      <c r="T163" s="3" t="n">
-        <v>-47</v>
+      <c r="T163" t="n">
+        <v>0</v>
       </c>
       <c r="U163" t="n">
         <v>0</v>
       </c>
-      <c r="V163" t="b">
+      <c r="V163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13450,13 +13449,13 @@
       <c r="S164" s="2" t="n">
         <v>43871</v>
       </c>
-      <c r="T164" s="3" t="n">
-        <v>-106</v>
+      <c r="T164" t="n">
+        <v>0</v>
       </c>
       <c r="U164" t="n">
         <v>0</v>
       </c>
-      <c r="V164" t="b">
+      <c r="V164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13528,13 +13527,13 @@
       <c r="S165" s="2" t="n">
         <v>43317</v>
       </c>
-      <c r="T165" s="3" t="n">
-        <v>-40</v>
+      <c r="T165" t="n">
+        <v>0</v>
       </c>
       <c r="U165" t="n">
         <v>0</v>
       </c>
-      <c r="V165" t="b">
+      <c r="V165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13606,13 +13605,13 @@
       <c r="S166" s="2" t="n">
         <v>43327</v>
       </c>
-      <c r="T166" s="3" t="n">
-        <v>-60</v>
+      <c r="T166" t="n">
+        <v>0</v>
       </c>
       <c r="U166" t="n">
         <v>0</v>
       </c>
-      <c r="V166" t="b">
+      <c r="V166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13684,13 +13683,13 @@
       <c r="S167" s="2" t="n">
         <v>44240</v>
       </c>
-      <c r="T167" s="3" t="n">
-        <v>-9</v>
+      <c r="T167" t="n">
+        <v>0</v>
       </c>
       <c r="U167" t="n">
         <v>0</v>
       </c>
-      <c r="V167" t="b">
+      <c r="V167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13762,13 +13761,13 @@
       <c r="S168" s="2" t="n">
         <v>43790</v>
       </c>
-      <c r="T168" s="3" t="n">
-        <v>-159</v>
+      <c r="T168" t="n">
+        <v>0</v>
       </c>
       <c r="U168" t="n">
         <v>0</v>
       </c>
-      <c r="V168" t="b">
+      <c r="V168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13844,13 +13843,13 @@
       <c r="S169" s="2" t="n">
         <v>43646</v>
       </c>
-      <c r="T169" s="3" t="n">
-        <v>9</v>
+      <c r="T169" t="n">
+        <v>1</v>
       </c>
       <c r="U169" t="n">
         <v>0</v>
       </c>
-      <c r="V169" t="b">
+      <c r="V169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13920,13 +13919,13 @@
       <c r="S170" s="2" t="n">
         <v>44101</v>
       </c>
-      <c r="T170" s="3" t="n">
-        <v>-67</v>
+      <c r="T170" t="n">
+        <v>0</v>
       </c>
       <c r="U170" t="n">
         <v>0</v>
       </c>
-      <c r="V170" t="b">
+      <c r="V170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14000,13 +13999,13 @@
       <c r="S171" s="2" t="n">
         <v>44127</v>
       </c>
-      <c r="T171" s="3" t="n">
-        <v>10</v>
+      <c r="T171" t="n">
+        <v>1</v>
       </c>
       <c r="U171" t="n">
         <v>0</v>
       </c>
-      <c r="V171" t="b">
+      <c r="V171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14076,13 +14075,13 @@
       <c r="S172" s="2" t="n">
         <v>43959</v>
       </c>
-      <c r="T172" s="3" t="n">
-        <v>-108</v>
+      <c r="T172" t="n">
+        <v>0</v>
       </c>
       <c r="U172" t="n">
         <v>0</v>
       </c>
-      <c r="V172" t="b">
+      <c r="V172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14156,13 +14155,13 @@
       <c r="S173" s="2" t="n">
         <v>44415</v>
       </c>
-      <c r="T173" s="3" t="n">
-        <v>12</v>
+      <c r="T173" t="n">
+        <v>1</v>
       </c>
       <c r="U173" t="n">
         <v>0</v>
       </c>
-      <c r="V173" t="b">
+      <c r="V173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14225,10 +14224,10 @@
         <v>0</v>
       </c>
       <c r="P174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R174" t="n">
         <v>0</v>
@@ -14236,13 +14235,13 @@
       <c r="S174" s="2" t="n">
         <v>44337</v>
       </c>
-      <c r="T174" s="3" t="n">
-        <v>-168</v>
+      <c r="T174" t="n">
+        <v>0</v>
       </c>
       <c r="U174" t="n">
         <v>0</v>
       </c>
-      <c r="V174" t="b">
+      <c r="V174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14312,13 +14311,13 @@
       <c r="S175" s="2" t="n">
         <v>44281</v>
       </c>
-      <c r="T175" s="3" t="n">
-        <v>-126</v>
+      <c r="T175" t="n">
+        <v>0</v>
       </c>
       <c r="U175" t="n">
         <v>0</v>
       </c>
-      <c r="V175" t="b">
+      <c r="V175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14388,13 +14387,13 @@
       <c r="S176" s="2" t="n">
         <v>43896</v>
       </c>
-      <c r="T176" s="3" t="n">
-        <v>-99</v>
+      <c r="T176" t="n">
+        <v>0</v>
       </c>
       <c r="U176" t="n">
         <v>0</v>
       </c>
-      <c r="V176" t="b">
+      <c r="V176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14464,13 +14463,13 @@
       <c r="S177" s="2" t="n">
         <v>45076</v>
       </c>
-      <c r="T177" s="3" t="n">
-        <v>-56</v>
+      <c r="T177" t="n">
+        <v>0</v>
       </c>
       <c r="U177" t="n">
         <v>0</v>
       </c>
-      <c r="V177" t="b">
+      <c r="V177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14540,13 +14539,13 @@
       <c r="S178" s="2" t="n">
         <v>43993</v>
       </c>
-      <c r="T178" s="3" t="n">
-        <v>-34</v>
+      <c r="T178" t="n">
+        <v>0</v>
       </c>
       <c r="U178" t="n">
         <v>0</v>
       </c>
-      <c r="V178" t="b">
+      <c r="V178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14616,13 +14615,13 @@
       <c r="S179" s="2" t="n">
         <v>43971</v>
       </c>
-      <c r="T179" s="3" t="n">
-        <v>-9</v>
+      <c r="T179" t="n">
+        <v>0</v>
       </c>
       <c r="U179" t="n">
         <v>0</v>
       </c>
-      <c r="V179" t="b">
+      <c r="V179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14685,10 +14684,10 @@
         <v>0</v>
       </c>
       <c r="P180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R180" t="n">
         <v>0</v>
@@ -14696,13 +14695,13 @@
       <c r="S180" s="2" t="n">
         <v>44260</v>
       </c>
-      <c r="T180" s="3" t="n">
-        <v>2</v>
+      <c r="T180" t="n">
+        <v>1</v>
       </c>
       <c r="U180" t="n">
         <v>0</v>
       </c>
-      <c r="V180" t="b">
+      <c r="V180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14772,13 +14771,13 @@
       <c r="S181" s="2" t="n">
         <v>43322</v>
       </c>
-      <c r="T181" s="3" t="n">
-        <v>-53</v>
+      <c r="T181" t="n">
+        <v>0</v>
       </c>
       <c r="U181" t="n">
         <v>0</v>
       </c>
-      <c r="V181" t="b">
+      <c r="V181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14848,13 +14847,13 @@
       <c r="S182" s="2" t="n">
         <v>44633</v>
       </c>
-      <c r="T182" s="3" t="n">
-        <v>-104</v>
+      <c r="T182" t="n">
+        <v>0</v>
       </c>
       <c r="U182" t="n">
         <v>0</v>
       </c>
-      <c r="V182" t="b">
+      <c r="V182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14928,13 +14927,13 @@
       <c r="S183" s="2" t="n">
         <v>44258</v>
       </c>
-      <c r="T183" s="3" t="n">
-        <v>8</v>
+      <c r="T183" t="n">
+        <v>1</v>
       </c>
       <c r="U183" t="n">
         <v>0</v>
       </c>
-      <c r="V183" t="b">
+      <c r="V183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15004,13 +15003,13 @@
       <c r="S184" s="2" t="n">
         <v>44240</v>
       </c>
-      <c r="T184" s="3" t="n">
-        <v>-145</v>
+      <c r="T184" t="n">
+        <v>0</v>
       </c>
       <c r="U184" t="n">
         <v>0</v>
       </c>
-      <c r="V184" t="b">
+      <c r="V184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15084,13 +15083,13 @@
       <c r="S185" s="2" t="n">
         <v>43727</v>
       </c>
-      <c r="T185" s="3" t="n">
-        <v>10</v>
+      <c r="T185" t="n">
+        <v>1</v>
       </c>
       <c r="U185" t="n">
         <v>0</v>
       </c>
-      <c r="V185" t="b">
+      <c r="V185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15164,13 +15163,13 @@
       <c r="S186" s="2" t="n">
         <v>44836</v>
       </c>
-      <c r="T186" s="3" t="n">
-        <v>11</v>
+      <c r="T186" t="n">
+        <v>1</v>
       </c>
       <c r="U186" t="n">
         <v>0</v>
       </c>
-      <c r="V186" t="b">
+      <c r="V186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15240,13 +15239,13 @@
       <c r="S187" s="2" t="n">
         <v>44014</v>
       </c>
-      <c r="T187" s="3" t="n">
-        <v>-112</v>
+      <c r="T187" t="n">
+        <v>0</v>
       </c>
       <c r="U187" t="n">
         <v>0</v>
       </c>
-      <c r="V187" t="b">
+      <c r="V187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15316,13 +15315,13 @@
       <c r="S188" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="T188" s="3" t="n">
-        <v>-122</v>
+      <c r="T188" t="n">
+        <v>0</v>
       </c>
       <c r="U188" t="n">
         <v>0</v>
       </c>
-      <c r="V188" t="b">
+      <c r="V188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15392,13 +15391,13 @@
       <c r="S189" s="2" t="n">
         <v>44656</v>
       </c>
-      <c r="T189" s="3" t="n">
-        <v>-64</v>
+      <c r="T189" t="n">
+        <v>0</v>
       </c>
       <c r="U189" t="n">
         <v>0</v>
       </c>
-      <c r="V189" t="b">
+      <c r="V189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15468,13 +15467,13 @@
       <c r="S190" s="2" t="n">
         <v>43912</v>
       </c>
-      <c r="T190" s="3" t="n">
-        <v>-85</v>
+      <c r="T190" t="n">
+        <v>0</v>
       </c>
       <c r="U190" t="n">
         <v>0</v>
       </c>
-      <c r="V190" t="b">
+      <c r="V190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15544,13 +15543,13 @@
       <c r="S191" s="2" t="n">
         <v>44681</v>
       </c>
-      <c r="T191" s="3" t="n">
-        <v>-39</v>
+      <c r="T191" t="n">
+        <v>0</v>
       </c>
       <c r="U191" t="n">
         <v>0</v>
       </c>
-      <c r="V191" t="b">
+      <c r="V191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15620,13 +15619,13 @@
       <c r="S192" s="2" t="n">
         <v>44700</v>
       </c>
-      <c r="T192" s="3" t="n">
-        <v>-11</v>
+      <c r="T192" t="n">
+        <v>0</v>
       </c>
       <c r="U192" t="n">
         <v>0</v>
       </c>
-      <c r="V192" t="b">
+      <c r="V192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15696,13 +15695,13 @@
       <c r="S193" s="2" t="n">
         <v>44377</v>
       </c>
-      <c r="T193" s="3" t="n">
-        <v>-52</v>
+      <c r="T193" t="n">
+        <v>0</v>
       </c>
       <c r="U193" t="n">
         <v>0</v>
       </c>
-      <c r="V193" t="b">
+      <c r="V193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15772,13 +15771,13 @@
       <c r="S194" s="2" t="n">
         <v>44930</v>
       </c>
-      <c r="T194" s="3" t="n">
-        <v>-110</v>
+      <c r="T194" t="n">
+        <v>0</v>
       </c>
       <c r="U194" t="n">
         <v>0</v>
       </c>
-      <c r="V194" t="b">
+      <c r="V194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15848,13 +15847,13 @@
       <c r="S195" s="2" t="n">
         <v>44668</v>
       </c>
-      <c r="T195" s="3" t="n">
-        <v>-60</v>
+      <c r="T195" t="n">
+        <v>0</v>
       </c>
       <c r="U195" t="n">
         <v>0</v>
       </c>
-      <c r="V195" t="b">
+      <c r="V195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15924,13 +15923,13 @@
       <c r="S196" s="2" t="n">
         <v>44199</v>
       </c>
-      <c r="T196" s="3" t="n">
-        <v>-168</v>
+      <c r="T196" t="n">
+        <v>0</v>
       </c>
       <c r="U196" t="n">
         <v>0</v>
       </c>
-      <c r="V196" t="b">
+      <c r="V196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16000,13 +15999,13 @@
       <c r="S197" s="2" t="n">
         <v>44117</v>
       </c>
-      <c r="T197" s="3" t="n">
-        <v>-64</v>
+      <c r="T197" t="n">
+        <v>0</v>
       </c>
       <c r="U197" t="n">
         <v>0</v>
       </c>
-      <c r="V197" t="b">
+      <c r="V197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16076,13 +16075,13 @@
       <c r="S198" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="T198" s="3" t="n">
-        <v>-145</v>
+      <c r="T198" t="n">
+        <v>0</v>
       </c>
       <c r="U198" t="n">
         <v>0</v>
       </c>
-      <c r="V198" t="b">
+      <c r="V198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16152,13 +16151,13 @@
       <c r="S199" s="2" t="n">
         <v>44064</v>
       </c>
-      <c r="T199" s="3" t="n">
-        <v>-24</v>
+      <c r="T199" t="n">
+        <v>0</v>
       </c>
       <c r="U199" t="n">
         <v>0</v>
       </c>
-      <c r="V199" t="b">
+      <c r="V199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16228,13 +16227,13 @@
       <c r="S200" s="2" t="n">
         <v>44560</v>
       </c>
-      <c r="T200" s="3" t="n">
-        <v>-33</v>
+      <c r="T200" t="n">
+        <v>0</v>
       </c>
       <c r="U200" t="n">
         <v>0</v>
       </c>
-      <c r="V200" t="b">
+      <c r="V200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16304,13 +16303,13 @@
       <c r="S201" s="2" t="n">
         <v>44631</v>
       </c>
-      <c r="T201" s="3" t="n">
-        <v>-3</v>
+      <c r="T201" t="n">
+        <v>0</v>
       </c>
       <c r="U201" t="n">
         <v>0</v>
       </c>
-      <c r="V201" t="b">
+      <c r="V201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16380,13 +16379,13 @@
       <c r="S202" s="2" t="n">
         <v>44872</v>
       </c>
-      <c r="T202" s="3" t="n">
-        <v>-163</v>
+      <c r="T202" t="n">
+        <v>0</v>
       </c>
       <c r="U202" t="n">
         <v>0</v>
       </c>
-      <c r="V202" t="b">
+      <c r="V202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16460,13 +16459,13 @@
       <c r="S203" s="2" t="n">
         <v>44760</v>
       </c>
-      <c r="T203" s="3" t="n">
-        <v>12</v>
+      <c r="T203" t="n">
+        <v>1</v>
       </c>
       <c r="U203" t="n">
         <v>0</v>
       </c>
-      <c r="V203" t="b">
+      <c r="V203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16536,13 +16535,13 @@
       <c r="S204" s="2" t="n">
         <v>43514</v>
       </c>
-      <c r="T204" s="3" t="n">
-        <v>-139</v>
+      <c r="T204" t="n">
+        <v>0</v>
       </c>
       <c r="U204" t="n">
         <v>0</v>
       </c>
-      <c r="V204" t="b">
+      <c r="V204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16612,13 +16611,13 @@
       <c r="S205" s="2" t="n">
         <v>44860</v>
       </c>
-      <c r="T205" s="3" t="n">
-        <v>-62</v>
+      <c r="T205" t="n">
+        <v>0</v>
       </c>
       <c r="U205" t="n">
         <v>0</v>
       </c>
-      <c r="V205" t="b">
+      <c r="V205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16688,13 +16687,13 @@
       <c r="S206" s="2" t="n">
         <v>44861</v>
       </c>
-      <c r="T206" s="3" t="n">
-        <v>-79</v>
+      <c r="T206" t="n">
+        <v>0</v>
       </c>
       <c r="U206" t="n">
         <v>0</v>
       </c>
-      <c r="V206" t="b">
+      <c r="V206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16764,13 +16763,13 @@
       <c r="S207" s="2" t="n">
         <v>44059</v>
       </c>
-      <c r="T207" s="3" t="n">
-        <v>-117</v>
+      <c r="T207" t="n">
+        <v>0</v>
       </c>
       <c r="U207" t="n">
         <v>0</v>
       </c>
-      <c r="V207" t="b">
+      <c r="V207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16840,13 +16839,13 @@
       <c r="S208" s="2" t="n">
         <v>43685</v>
       </c>
-      <c r="T208" s="3" t="n">
-        <v>-21</v>
+      <c r="T208" t="n">
+        <v>0</v>
       </c>
       <c r="U208" t="n">
         <v>0</v>
       </c>
-      <c r="V208" t="b">
+      <c r="V208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16916,13 +16915,13 @@
       <c r="S209" s="2" t="n">
         <v>43569</v>
       </c>
-      <c r="T209" s="3" t="n">
-        <v>-8</v>
+      <c r="T209" t="n">
+        <v>0</v>
       </c>
       <c r="U209" t="n">
         <v>0</v>
       </c>
-      <c r="V209" t="b">
+      <c r="V209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16992,13 +16991,13 @@
       <c r="S210" s="2" t="n">
         <v>44085</v>
       </c>
-      <c r="T210" s="3" t="n">
-        <v>-160</v>
+      <c r="T210" t="n">
+        <v>0</v>
       </c>
       <c r="U210" t="n">
         <v>0</v>
       </c>
-      <c r="V210" t="b">
+      <c r="V210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17068,13 +17067,13 @@
       <c r="S211" s="2" t="n">
         <v>44187</v>
       </c>
-      <c r="T211" s="3" t="n">
-        <v>-155</v>
+      <c r="T211" t="n">
+        <v>0</v>
       </c>
       <c r="U211" t="n">
         <v>0</v>
       </c>
-      <c r="V211" t="b">
+      <c r="V211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17144,13 +17143,13 @@
       <c r="S212" s="2" t="n">
         <v>44848</v>
       </c>
-      <c r="T212" s="3" t="n">
-        <v>-31</v>
+      <c r="T212" t="n">
+        <v>0</v>
       </c>
       <c r="U212" t="n">
         <v>0</v>
       </c>
-      <c r="V212" t="b">
+      <c r="V212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17220,13 +17219,13 @@
       <c r="S213" s="2" t="n">
         <v>44081</v>
       </c>
-      <c r="T213" s="3" t="n">
-        <v>-175</v>
+      <c r="T213" t="n">
+        <v>0</v>
       </c>
       <c r="U213" t="n">
         <v>0</v>
       </c>
-      <c r="V213" t="b">
+      <c r="V213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17296,13 +17295,13 @@
       <c r="S214" s="2" t="n">
         <v>44837</v>
       </c>
-      <c r="T214" s="3" t="n">
-        <v>-93</v>
+      <c r="T214" t="n">
+        <v>0</v>
       </c>
       <c r="U214" t="n">
         <v>0</v>
       </c>
-      <c r="V214" t="b">
+      <c r="V214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17372,13 +17371,13 @@
       <c r="S215" s="2" t="n">
         <v>43692</v>
       </c>
-      <c r="T215" s="3" t="n">
-        <v>-65</v>
+      <c r="T215" t="n">
+        <v>0</v>
       </c>
       <c r="U215" t="n">
         <v>0</v>
       </c>
-      <c r="V215" t="b">
+      <c r="V215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17448,13 +17447,13 @@
       <c r="S216" s="2" t="n">
         <v>44898</v>
       </c>
-      <c r="T216" s="3" t="n">
-        <v>-47</v>
+      <c r="T216" t="n">
+        <v>0</v>
       </c>
       <c r="U216" t="n">
         <v>0</v>
       </c>
-      <c r="V216" t="b">
+      <c r="V216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17524,13 +17523,13 @@
       <c r="S217" s="2" t="n">
         <v>43638</v>
       </c>
-      <c r="T217" s="3" t="n">
-        <v>-102</v>
+      <c r="T217" t="n">
+        <v>0</v>
       </c>
       <c r="U217" t="n">
         <v>0</v>
       </c>
-      <c r="V217" t="b">
+      <c r="V217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17600,13 +17599,13 @@
       <c r="S218" s="2" t="n">
         <v>44123</v>
       </c>
-      <c r="T218" s="3" t="n">
-        <v>-107</v>
+      <c r="T218" t="n">
+        <v>0</v>
       </c>
       <c r="U218" t="n">
         <v>0</v>
       </c>
-      <c r="V218" t="b">
+      <c r="V218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17680,13 +17679,13 @@
       <c r="S219" s="2" t="n">
         <v>44611</v>
       </c>
-      <c r="T219" s="3" t="n">
-        <v>16</v>
+      <c r="T219" t="n">
+        <v>1</v>
       </c>
       <c r="U219" t="n">
         <v>0</v>
       </c>
-      <c r="V219" t="b">
+      <c r="V219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17756,13 +17755,13 @@
       <c r="S220" s="2" t="n">
         <v>43648</v>
       </c>
-      <c r="T220" s="3" t="n">
-        <v>-167</v>
+      <c r="T220" t="n">
+        <v>0</v>
       </c>
       <c r="U220" t="n">
         <v>0</v>
       </c>
-      <c r="V220" t="b">
+      <c r="V220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17834,13 +17833,13 @@
       <c r="S221" s="2" t="n">
         <v>43573</v>
       </c>
-      <c r="T221" s="3" t="n">
-        <v>-7</v>
+      <c r="T221" t="n">
+        <v>0</v>
       </c>
       <c r="U221" t="n">
         <v>0</v>
       </c>
-      <c r="V221" t="b">
+      <c r="V221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17912,13 +17911,13 @@
       <c r="S222" s="2" t="n">
         <v>44130</v>
       </c>
-      <c r="T222" s="3" t="n">
-        <v>-7308</v>
+      <c r="T222" t="n">
+        <v>0</v>
       </c>
       <c r="U222" t="n">
         <v>0</v>
       </c>
-      <c r="V222" t="b">
+      <c r="V222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17990,13 +17989,13 @@
       <c r="S223" s="2" t="n">
         <v>44884</v>
       </c>
-      <c r="T223" s="3" t="n">
-        <v>-114</v>
+      <c r="T223" t="n">
+        <v>0</v>
       </c>
       <c r="U223" t="n">
         <v>0</v>
       </c>
-      <c r="V223" t="b">
+      <c r="V223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18068,13 +18067,13 @@
       <c r="S224" s="2" t="n">
         <v>44171</v>
       </c>
-      <c r="T224" s="3" t="n">
-        <v>-111</v>
+      <c r="T224" t="n">
+        <v>0</v>
       </c>
       <c r="U224" t="n">
         <v>0</v>
       </c>
-      <c r="V224" t="b">
+      <c r="V224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18146,13 +18145,13 @@
       <c r="S225" s="2" t="n">
         <v>45087</v>
       </c>
-      <c r="T225" s="3" t="n">
-        <v>-93</v>
+      <c r="T225" t="n">
+        <v>0</v>
       </c>
       <c r="U225" t="n">
         <v>0</v>
       </c>
-      <c r="V225" t="b">
+      <c r="V225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18224,13 +18223,13 @@
       <c r="S226" s="2" t="n">
         <v>44497</v>
       </c>
-      <c r="T226" s="3" t="n">
-        <v>-46</v>
+      <c r="T226" t="n">
+        <v>0</v>
       </c>
       <c r="U226" t="n">
         <v>0</v>
       </c>
-      <c r="V226" t="b">
+      <c r="V226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18302,13 +18301,13 @@
       <c r="S227" s="2" t="n">
         <v>44424</v>
       </c>
-      <c r="T227" s="3" t="n">
-        <v>-130</v>
+      <c r="T227" t="n">
+        <v>0</v>
       </c>
       <c r="U227" t="n">
         <v>0</v>
       </c>
-      <c r="V227" t="b">
+      <c r="V227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18380,13 +18379,13 @@
       <c r="S228" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="T228" s="3" t="n">
-        <v>-20</v>
+      <c r="T228" t="n">
+        <v>0</v>
       </c>
       <c r="U228" t="n">
         <v>0</v>
       </c>
-      <c r="V228" t="b">
+      <c r="V228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18458,13 +18457,13 @@
       <c r="S229" s="2" t="n">
         <v>43930</v>
       </c>
-      <c r="T229" s="3" t="n">
-        <v>-56</v>
+      <c r="T229" t="n">
+        <v>0</v>
       </c>
       <c r="U229" t="n">
         <v>0</v>
       </c>
-      <c r="V229" t="b">
+      <c r="V229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18536,13 +18535,13 @@
       <c r="S230" s="2" t="n">
         <v>43553</v>
       </c>
-      <c r="T230" s="3" t="n">
-        <v>-149</v>
+      <c r="T230" t="n">
+        <v>0</v>
       </c>
       <c r="U230" t="n">
         <v>0</v>
       </c>
-      <c r="V230" t="b">
+      <c r="V230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18618,13 +18617,13 @@
       <c r="S231" s="2" t="n">
         <v>45070</v>
       </c>
-      <c r="T231" s="3" t="n">
-        <v>9</v>
+      <c r="T231" t="n">
+        <v>1</v>
       </c>
       <c r="U231" t="n">
         <v>0</v>
       </c>
-      <c r="V231" t="b">
+      <c r="V231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18696,13 +18695,13 @@
       <c r="S232" s="2" t="n">
         <v>43686</v>
       </c>
-      <c r="T232" s="3" t="n">
-        <v>-55</v>
+      <c r="T232" t="n">
+        <v>0</v>
       </c>
       <c r="U232" t="n">
         <v>0</v>
       </c>
-      <c r="V232" t="b">
+      <c r="V232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18774,13 +18773,13 @@
       <c r="S233" s="2" t="n">
         <v>43310</v>
       </c>
-      <c r="T233" s="3" t="n">
-        <v>-1</v>
+      <c r="T233" t="n">
+        <v>0</v>
       </c>
       <c r="U233" t="n">
         <v>0</v>
       </c>
-      <c r="V233" t="b">
+      <c r="V233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18852,13 +18851,13 @@
       <c r="S234" s="2" t="n">
         <v>44852</v>
       </c>
-      <c r="T234" s="3" t="n">
-        <v>-45</v>
+      <c r="T234" t="n">
+        <v>0</v>
       </c>
       <c r="U234" t="n">
         <v>0</v>
       </c>
-      <c r="V234" t="b">
+      <c r="V234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18930,13 +18929,13 @@
       <c r="S235" s="2" t="n">
         <v>44707</v>
       </c>
-      <c r="T235" s="3" t="n">
-        <v>-162</v>
+      <c r="T235" t="n">
+        <v>0</v>
       </c>
       <c r="U235" t="n">
         <v>0</v>
       </c>
-      <c r="V235" t="b">
+      <c r="V235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19008,13 +19007,13 @@
       <c r="S236" s="2" t="n">
         <v>44213</v>
       </c>
-      <c r="T236" s="3" t="n">
-        <v>-91</v>
+      <c r="T236" t="n">
+        <v>0</v>
       </c>
       <c r="U236" t="n">
         <v>0</v>
       </c>
-      <c r="V236" t="b">
+      <c r="V236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19086,13 +19085,13 @@
       <c r="S237" s="2" t="n">
         <v>43594</v>
       </c>
-      <c r="T237" s="3" t="n">
-        <v>-132</v>
+      <c r="T237" t="n">
+        <v>0</v>
       </c>
       <c r="U237" t="n">
         <v>0</v>
       </c>
-      <c r="V237" t="b">
+      <c r="V237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19168,13 +19167,13 @@
       <c r="S238" s="2" t="n">
         <v>43962</v>
       </c>
-      <c r="T238" s="3" t="n">
-        <v>2</v>
+      <c r="T238" t="n">
+        <v>1</v>
       </c>
       <c r="U238" t="n">
         <v>0</v>
       </c>
-      <c r="V238" t="b">
+      <c r="V238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19246,13 +19245,13 @@
       <c r="S239" s="2" t="n">
         <v>44307</v>
       </c>
-      <c r="T239" s="3" t="n">
-        <v>-175</v>
+      <c r="T239" t="n">
+        <v>0</v>
       </c>
       <c r="U239" t="n">
         <v>0</v>
       </c>
-      <c r="V239" t="b">
+      <c r="V239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19324,13 +19323,13 @@
       <c r="S240" s="2" t="n">
         <v>44153</v>
       </c>
-      <c r="T240" s="3" t="n">
-        <v>-54</v>
+      <c r="T240" t="n">
+        <v>0</v>
       </c>
       <c r="U240" t="n">
         <v>0</v>
       </c>
-      <c r="V240" t="b">
+      <c r="V240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19402,13 +19401,13 @@
       <c r="S241" s="2" t="n">
         <v>44614</v>
       </c>
-      <c r="T241" s="3" t="n">
-        <v>-82</v>
+      <c r="T241" t="n">
+        <v>0</v>
       </c>
       <c r="U241" t="n">
         <v>0</v>
       </c>
-      <c r="V241" t="b">
+      <c r="V241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19480,13 +19479,13 @@
       <c r="S242" s="2" t="n">
         <v>44415</v>
       </c>
-      <c r="T242" s="3" t="n">
-        <v>-170</v>
+      <c r="T242" t="n">
+        <v>0</v>
       </c>
       <c r="U242" t="n">
         <v>0</v>
       </c>
-      <c r="V242" t="b">
+      <c r="V242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19558,13 +19557,13 @@
       <c r="S243" s="2" t="n">
         <v>43927</v>
       </c>
-      <c r="T243" s="3" t="n">
-        <v>-90</v>
+      <c r="T243" t="n">
+        <v>0</v>
       </c>
       <c r="U243" t="n">
         <v>0</v>
       </c>
-      <c r="V243" t="b">
+      <c r="V243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19636,13 +19635,13 @@
       <c r="S244" s="2" t="n">
         <v>44098</v>
       </c>
-      <c r="T244" s="3" t="n">
-        <v>-1</v>
+      <c r="T244" t="n">
+        <v>0</v>
       </c>
       <c r="U244" t="n">
         <v>0</v>
       </c>
-      <c r="V244" t="b">
+      <c r="V244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19718,13 +19717,13 @@
       <c r="S245" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="T245" s="3" t="n">
-        <v>15</v>
+      <c r="T245" t="n">
+        <v>1</v>
       </c>
       <c r="U245" t="n">
         <v>0</v>
       </c>
-      <c r="V245" t="b">
+      <c r="V245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19792,13 +19791,13 @@
       <c r="S246" s="2" t="n">
         <v>43881</v>
       </c>
-      <c r="T246" s="3" t="n">
-        <v>-91</v>
+      <c r="T246" t="n">
+        <v>0</v>
       </c>
       <c r="U246" t="n">
         <v>0</v>
       </c>
-      <c r="V246" t="b">
+      <c r="V246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19866,13 +19865,13 @@
       <c r="S247" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="T247" s="3" t="n">
-        <v>-38</v>
+      <c r="T247" t="n">
+        <v>0</v>
       </c>
       <c r="U247" t="n">
-        <v>1204.146114467656</v>
-      </c>
-      <c r="V247" t="b">
+        <v>0</v>
+      </c>
+      <c r="V247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19944,13 +19943,13 @@
       <c r="S248" s="2" t="n">
         <v>44818</v>
       </c>
-      <c r="T248" s="3" t="n">
-        <v>16</v>
+      <c r="T248" t="n">
+        <v>1</v>
       </c>
       <c r="U248" t="n">
         <v>0</v>
       </c>
-      <c r="V248" t="b">
+      <c r="V248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20018,13 +20017,13 @@
       <c r="S249" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="T249" s="3" t="n">
-        <v>-147</v>
+      <c r="T249" t="n">
+        <v>0</v>
       </c>
       <c r="U249" t="n">
         <v>0</v>
       </c>
-      <c r="V249" t="b">
+      <c r="V249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20092,13 +20091,13 @@
       <c r="S250" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="T250" s="3" t="n">
-        <v>-168</v>
+      <c r="T250" t="n">
+        <v>0</v>
       </c>
       <c r="U250" t="n">
         <v>0</v>
       </c>
-      <c r="V250" t="b">
+      <c r="V250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20166,13 +20165,13 @@
       <c r="S251" s="2" t="n">
         <v>44900</v>
       </c>
-      <c r="T251" s="3" t="n">
-        <v>-15</v>
+      <c r="T251" t="n">
+        <v>0</v>
       </c>
       <c r="U251" t="n">
         <v>0</v>
       </c>
-      <c r="V251" t="b">
+      <c r="V251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20240,13 +20239,13 @@
       <c r="S252" s="2" t="n">
         <v>44208</v>
       </c>
-      <c r="T252" s="3" t="n">
-        <v>-43</v>
+      <c r="T252" t="n">
+        <v>0</v>
       </c>
       <c r="U252" t="n">
         <v>0</v>
       </c>
-      <c r="V252" t="b">
+      <c r="V252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20314,13 +20313,13 @@
       <c r="S253" s="2" t="n">
         <v>43710</v>
       </c>
-      <c r="T253" s="3" t="n">
-        <v>-88</v>
+      <c r="T253" t="n">
+        <v>0</v>
       </c>
       <c r="U253" t="n">
         <v>0</v>
       </c>
-      <c r="V253" t="b">
+      <c r="V253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20388,13 +20387,13 @@
       <c r="S254" s="2" t="n">
         <v>43962</v>
       </c>
-      <c r="T254" s="3" t="n">
-        <v>-51</v>
+      <c r="T254" t="n">
+        <v>0</v>
       </c>
       <c r="U254" t="n">
         <v>0</v>
       </c>
-      <c r="V254" t="b">
+      <c r="V254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20462,13 +20461,13 @@
       <c r="S255" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="T255" s="3" t="n">
-        <v>-142</v>
+      <c r="T255" t="n">
+        <v>0</v>
       </c>
       <c r="U255" t="n">
         <v>0</v>
       </c>
-      <c r="V255" t="b">
+      <c r="V255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20536,13 +20535,13 @@
       <c r="S256" s="2" t="n">
         <v>44503</v>
       </c>
-      <c r="T256" s="3" t="n">
-        <v>-150</v>
+      <c r="T256" t="n">
+        <v>0</v>
       </c>
       <c r="U256" t="n">
         <v>0</v>
       </c>
-      <c r="V256" t="b">
+      <c r="V256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20610,13 +20609,13 @@
       <c r="S257" s="2" t="n">
         <v>44175</v>
       </c>
-      <c r="T257" s="3" t="n">
-        <v>-115</v>
+      <c r="T257" t="n">
+        <v>0</v>
       </c>
       <c r="U257" t="n">
         <v>0</v>
       </c>
-      <c r="V257" t="b">
+      <c r="V257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20684,13 +20683,13 @@
       <c r="S258" s="2" t="n">
         <v>43293</v>
       </c>
-      <c r="T258" s="3" t="n">
-        <v>-60</v>
+      <c r="T258" t="n">
+        <v>0</v>
       </c>
       <c r="U258" t="n">
         <v>0</v>
       </c>
-      <c r="V258" t="b">
+      <c r="V258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20758,13 +20757,13 @@
       <c r="S259" s="2" t="n">
         <v>44795</v>
       </c>
-      <c r="T259" s="3" t="n">
-        <v>-112</v>
+      <c r="T259" t="n">
+        <v>0</v>
       </c>
       <c r="U259" t="n">
         <v>0</v>
       </c>
-      <c r="V259" t="b">
+      <c r="V259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20832,13 +20831,13 @@
       <c r="S260" s="2" t="n">
         <v>44342</v>
       </c>
-      <c r="T260" s="3" t="n">
-        <v>-109</v>
+      <c r="T260" t="n">
+        <v>0</v>
       </c>
       <c r="U260" t="n">
         <v>0</v>
       </c>
-      <c r="V260" t="b">
+      <c r="V260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20906,13 +20905,13 @@
       <c r="S261" s="2" t="n">
         <v>43660</v>
       </c>
-      <c r="T261" s="3" t="n">
-        <v>-52</v>
+      <c r="T261" t="n">
+        <v>0</v>
       </c>
       <c r="U261" t="n">
         <v>0</v>
       </c>
-      <c r="V261" t="b">
+      <c r="V261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20980,13 +20979,13 @@
       <c r="S262" s="2" t="n">
         <v>43853</v>
       </c>
-      <c r="T262" s="3" t="n">
-        <v>-154</v>
+      <c r="T262" t="n">
+        <v>0</v>
       </c>
       <c r="U262" t="n">
         <v>0</v>
       </c>
-      <c r="V262" t="b">
+      <c r="V262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21054,13 +21053,13 @@
       <c r="S263" s="2" t="n">
         <v>44076</v>
       </c>
-      <c r="T263" s="3" t="n">
-        <v>-56</v>
+      <c r="T263" t="n">
+        <v>0</v>
       </c>
       <c r="U263" t="n">
         <v>0</v>
       </c>
-      <c r="V263" t="b">
+      <c r="V263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21132,13 +21131,13 @@
       <c r="S264" s="2" t="n">
         <v>44072</v>
       </c>
-      <c r="T264" s="3" t="n">
-        <v>-70</v>
+      <c r="T264" t="n">
+        <v>0</v>
       </c>
       <c r="U264" t="n">
         <v>0</v>
       </c>
-      <c r="V264" t="b">
+      <c r="V264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21210,13 +21209,13 @@
       <c r="S265" s="2" t="n">
         <v>45042</v>
       </c>
-      <c r="T265" s="3" t="n">
-        <v>12</v>
+      <c r="T265" t="n">
+        <v>1</v>
       </c>
       <c r="U265" t="n">
         <v>0</v>
       </c>
-      <c r="V265" t="b">
+      <c r="V265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21284,13 +21283,13 @@
       <c r="S266" s="2" t="n">
         <v>43916</v>
       </c>
-      <c r="T266" s="3" t="n">
-        <v>-104</v>
+      <c r="T266" t="n">
+        <v>0</v>
       </c>
       <c r="U266" t="n">
         <v>0</v>
       </c>
-      <c r="V266" t="b">
+      <c r="V266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21362,13 +21361,13 @@
       <c r="S267" s="2" t="n">
         <v>44841</v>
       </c>
-      <c r="T267" s="3" t="n">
-        <v>3</v>
+      <c r="T267" t="n">
+        <v>1</v>
       </c>
       <c r="U267" t="n">
         <v>0</v>
       </c>
-      <c r="V267" t="b">
+      <c r="V267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21429,10 +21428,10 @@
         <v>0</v>
       </c>
       <c r="P268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R268" t="n">
         <v>0</v>
@@ -21440,13 +21439,13 @@
       <c r="S268" s="2" t="n">
         <v>44126</v>
       </c>
-      <c r="T268" s="3" t="n">
-        <v>13</v>
+      <c r="T268" t="n">
+        <v>1</v>
       </c>
       <c r="U268" t="n">
         <v>0</v>
       </c>
-      <c r="V268" t="b">
+      <c r="V268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21514,13 +21513,13 @@
       <c r="S269" s="2" t="n">
         <v>43558</v>
       </c>
-      <c r="T269" s="3" t="n">
-        <v>-79</v>
+      <c r="T269" t="n">
+        <v>0</v>
       </c>
       <c r="U269" t="n">
         <v>0</v>
       </c>
-      <c r="V269" t="b">
+      <c r="V269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21588,13 +21587,13 @@
       <c r="S270" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="T270" s="3" t="n">
-        <v>-67</v>
+      <c r="T270" t="n">
+        <v>0</v>
       </c>
       <c r="U270" t="n">
         <v>0</v>
       </c>
-      <c r="V270" t="b">
+      <c r="V270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21662,13 +21661,13 @@
       <c r="S271" s="2" t="n">
         <v>43427</v>
       </c>
-      <c r="T271" s="3" t="n">
-        <v>-138</v>
+      <c r="T271" t="n">
+        <v>0</v>
       </c>
       <c r="U271" t="n">
         <v>0</v>
       </c>
-      <c r="V271" t="b">
+      <c r="V271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21736,13 +21735,13 @@
       <c r="S272" s="2" t="n">
         <v>43970</v>
       </c>
-      <c r="T272" s="3" t="n">
-        <v>-97</v>
+      <c r="T272" t="n">
+        <v>0</v>
       </c>
       <c r="U272" t="n">
         <v>0</v>
       </c>
-      <c r="V272" t="b">
+      <c r="V272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21810,13 +21809,13 @@
       <c r="S273" s="2" t="n">
         <v>44996</v>
       </c>
-      <c r="T273" s="3" t="n">
-        <v>-153</v>
+      <c r="T273" t="n">
+        <v>0</v>
       </c>
       <c r="U273" t="n">
         <v>0</v>
       </c>
-      <c r="V273" t="b">
+      <c r="V273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21884,13 +21883,13 @@
       <c r="S274" s="2" t="n">
         <v>44313</v>
       </c>
-      <c r="T274" s="3" t="n">
-        <v>-24</v>
+      <c r="T274" t="n">
+        <v>0</v>
       </c>
       <c r="U274" t="n">
         <v>0</v>
       </c>
-      <c r="V274" t="b">
+      <c r="V274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21958,13 +21957,13 @@
       <c r="S275" s="2" t="n">
         <v>44113</v>
       </c>
-      <c r="T275" s="3" t="n">
-        <v>-48</v>
+      <c r="T275" t="n">
+        <v>0</v>
       </c>
       <c r="U275" t="n">
         <v>0</v>
       </c>
-      <c r="V275" t="b">
+      <c r="V275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22032,13 +22031,13 @@
       <c r="S276" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="T276" s="3" t="n">
-        <v>-117</v>
+      <c r="T276" t="n">
+        <v>0</v>
       </c>
       <c r="U276" t="n">
         <v>0</v>
       </c>
-      <c r="V276" t="b">
+      <c r="V276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22106,13 +22105,13 @@
       <c r="S277" s="2" t="n">
         <v>44779</v>
       </c>
-      <c r="T277" s="3" t="n">
-        <v>-160</v>
+      <c r="T277" t="n">
+        <v>0</v>
       </c>
       <c r="U277" t="n">
         <v>0</v>
       </c>
-      <c r="V277" t="b">
+      <c r="V277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22180,13 +22179,13 @@
       <c r="S278" s="2" t="n">
         <v>43427</v>
       </c>
-      <c r="T278" s="3" t="n">
-        <v>-118</v>
+      <c r="T278" t="n">
+        <v>0</v>
       </c>
       <c r="U278" t="n">
         <v>0</v>
       </c>
-      <c r="V278" t="b">
+      <c r="V278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22254,13 +22253,13 @@
       <c r="S279" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="T279" s="3" t="n">
-        <v>-58</v>
+      <c r="T279" t="n">
+        <v>0</v>
       </c>
       <c r="U279" t="n">
         <v>0</v>
       </c>
-      <c r="V279" t="b">
+      <c r="V279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22328,13 +22327,13 @@
       <c r="S280" s="2" t="n">
         <v>43528</v>
       </c>
-      <c r="T280" s="3" t="n">
-        <v>-11</v>
+      <c r="T280" t="n">
+        <v>0</v>
       </c>
       <c r="U280" t="n">
         <v>0</v>
       </c>
-      <c r="V280" t="b">
+      <c r="V280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22406,13 +22405,13 @@
       <c r="S281" s="2" t="n">
         <v>44528</v>
       </c>
-      <c r="T281" s="3" t="n">
-        <v>12</v>
+      <c r="T281" t="n">
+        <v>1</v>
       </c>
       <c r="U281" t="n">
         <v>0</v>
       </c>
-      <c r="V281" t="b">
+      <c r="V281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22480,13 +22479,13 @@
       <c r="S282" s="2" t="n">
         <v>43912</v>
       </c>
-      <c r="T282" s="3" t="n">
-        <v>-25</v>
+      <c r="T282" t="n">
+        <v>0</v>
       </c>
       <c r="U282" t="n">
         <v>0</v>
       </c>
-      <c r="V282" t="b">
+      <c r="V282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22554,13 +22553,13 @@
       <c r="S283" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="T283" s="3" t="n">
-        <v>-79</v>
+      <c r="T283" t="n">
+        <v>0</v>
       </c>
       <c r="U283" t="n">
         <v>0</v>
       </c>
-      <c r="V283" t="b">
+      <c r="V283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22628,13 +22627,13 @@
       <c r="S284" s="2" t="n">
         <v>43710</v>
       </c>
-      <c r="T284" s="3" t="n">
-        <v>-115</v>
+      <c r="T284" t="n">
+        <v>0</v>
       </c>
       <c r="U284" t="n">
         <v>0</v>
       </c>
-      <c r="V284" t="b">
+      <c r="V284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22702,13 +22701,13 @@
       <c r="S285" s="2" t="n">
         <v>44406</v>
       </c>
-      <c r="T285" s="3" t="n">
-        <v>-154</v>
+      <c r="T285" t="n">
+        <v>0</v>
       </c>
       <c r="U285" t="n">
         <v>0</v>
       </c>
-      <c r="V285" t="b">
+      <c r="V285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22776,13 +22775,13 @@
       <c r="S286" s="2" t="n">
         <v>44824</v>
       </c>
-      <c r="T286" s="3" t="n">
-        <v>-91</v>
+      <c r="T286" t="n">
+        <v>0</v>
       </c>
       <c r="U286" t="n">
         <v>0</v>
       </c>
-      <c r="V286" t="b">
+      <c r="V286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22850,13 +22849,13 @@
       <c r="S287" s="2" t="n">
         <v>43569</v>
       </c>
-      <c r="T287" s="3" t="n">
-        <v>-101</v>
+      <c r="T287" t="n">
+        <v>0</v>
       </c>
       <c r="U287" t="n">
         <v>0</v>
       </c>
-      <c r="V287" t="b">
+      <c r="V287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22924,13 +22923,13 @@
       <c r="S288" s="2" t="n">
         <v>43937</v>
       </c>
-      <c r="T288" s="3" t="n">
-        <v>-58</v>
+      <c r="T288" t="n">
+        <v>0</v>
       </c>
       <c r="U288" t="n">
         <v>0</v>
       </c>
-      <c r="V288" t="b">
+      <c r="V288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22998,13 +22997,13 @@
       <c r="S289" s="2" t="n">
         <v>44231</v>
       </c>
-      <c r="T289" s="3" t="n">
-        <v>-115</v>
+      <c r="T289" t="n">
+        <v>0</v>
       </c>
       <c r="U289" t="n">
         <v>0</v>
       </c>
-      <c r="V289" t="b">
+      <c r="V289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23072,13 +23071,13 @@
       <c r="S290" s="2" t="n">
         <v>43334</v>
       </c>
-      <c r="T290" s="3" t="n">
-        <v>-62</v>
+      <c r="T290" t="n">
+        <v>0</v>
       </c>
       <c r="U290" t="n">
         <v>0</v>
       </c>
-      <c r="V290" t="b">
+      <c r="V290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23146,13 +23145,13 @@
       <c r="S291" s="2" t="n">
         <v>44580</v>
       </c>
-      <c r="T291" s="3" t="n">
-        <v>-95</v>
+      <c r="T291" t="n">
+        <v>0</v>
       </c>
       <c r="U291" t="n">
         <v>0</v>
       </c>
-      <c r="V291" t="b">
+      <c r="V291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23224,13 +23223,13 @@
       <c r="S292" s="2" t="n">
         <v>43766</v>
       </c>
-      <c r="T292" s="3" t="n">
-        <v>-62</v>
+      <c r="T292" t="n">
+        <v>0</v>
       </c>
       <c r="U292" t="n">
         <v>0</v>
       </c>
-      <c r="V292" t="b">
+      <c r="V292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23298,13 +23297,13 @@
       <c r="S293" s="2" t="n">
         <v>44655</v>
       </c>
-      <c r="T293" s="3" t="n">
-        <v>-81</v>
+      <c r="T293" t="n">
+        <v>0</v>
       </c>
       <c r="U293" t="n">
         <v>0</v>
       </c>
-      <c r="V293" t="b">
+      <c r="V293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23372,13 +23371,13 @@
       <c r="S294" s="2" t="n">
         <v>44739</v>
       </c>
-      <c r="T294" s="3" t="n">
-        <v>-95</v>
+      <c r="T294" t="n">
+        <v>0</v>
       </c>
       <c r="U294" t="n">
         <v>0</v>
       </c>
-      <c r="V294" t="b">
+      <c r="V294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23450,13 +23449,13 @@
       <c r="S295" s="2" t="n">
         <v>44139</v>
       </c>
-      <c r="T295" s="3" t="n">
-        <v>-8</v>
+      <c r="T295" t="n">
+        <v>0</v>
       </c>
       <c r="U295" t="n">
         <v>0</v>
       </c>
-      <c r="V295" t="b">
+      <c r="V295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23524,13 +23523,13 @@
       <c r="S296" s="2" t="n">
         <v>43814</v>
       </c>
-      <c r="T296" s="3" t="n">
-        <v>-129</v>
+      <c r="T296" t="n">
+        <v>0</v>
       </c>
       <c r="U296" t="n">
         <v>0</v>
       </c>
-      <c r="V296" t="b">
+      <c r="V296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23598,13 +23597,13 @@
       <c r="S297" s="2" t="n">
         <v>44307</v>
       </c>
-      <c r="T297" s="3" t="n">
-        <v>-78</v>
+      <c r="T297" t="n">
+        <v>0</v>
       </c>
       <c r="U297" t="n">
         <v>0</v>
       </c>
-      <c r="V297" t="b">
+      <c r="V297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23672,13 +23671,13 @@
       <c r="S298" s="2" t="n">
         <v>43314</v>
       </c>
-      <c r="T298" s="3" t="n">
-        <v>-114</v>
+      <c r="T298" t="n">
+        <v>0</v>
       </c>
       <c r="U298" t="n">
         <v>0</v>
       </c>
-      <c r="V298" t="b">
+      <c r="V298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23746,13 +23745,13 @@
       <c r="S299" s="2" t="n">
         <v>44666</v>
       </c>
-      <c r="T299" s="3" t="n">
-        <v>-130</v>
+      <c r="T299" t="n">
+        <v>0</v>
       </c>
       <c r="U299" t="n">
         <v>0</v>
       </c>
-      <c r="V299" t="b">
+      <c r="V299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23824,13 +23823,13 @@
       <c r="S300" s="2" t="n">
         <v>43521</v>
       </c>
-      <c r="T300" s="3" t="n">
-        <v>-120</v>
+      <c r="T300" t="n">
+        <v>0</v>
       </c>
       <c r="U300" t="n">
         <v>0</v>
       </c>
-      <c r="V300" t="b">
+      <c r="V300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23898,13 +23897,13 @@
       <c r="S301" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="T301" s="3" t="n">
-        <v>-77</v>
+      <c r="T301" t="n">
+        <v>0</v>
       </c>
       <c r="U301" t="n">
         <v>0</v>
       </c>
-      <c r="V301" t="b">
+      <c r="V301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23972,13 +23971,13 @@
       <c r="S302" s="2" t="n">
         <v>43471</v>
       </c>
-      <c r="T302" s="3" t="n">
-        <v>-153</v>
+      <c r="T302" t="n">
+        <v>0</v>
       </c>
       <c r="U302" t="n">
         <v>0</v>
       </c>
-      <c r="V302" t="b">
+      <c r="V302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24039,10 +24038,10 @@
         <v>0</v>
       </c>
       <c r="P303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R303" t="n">
         <v>0</v>
@@ -24050,13 +24049,13 @@
       <c r="S303" s="2" t="n">
         <v>43600</v>
       </c>
-      <c r="T303" s="3" t="n">
-        <v>-39</v>
+      <c r="T303" t="n">
+        <v>0</v>
       </c>
       <c r="U303" t="n">
         <v>0</v>
       </c>
-      <c r="V303" t="b">
+      <c r="V303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24124,13 +24123,13 @@
       <c r="S304" s="2" t="n">
         <v>43762</v>
       </c>
-      <c r="T304" s="3" t="n">
-        <v>-127</v>
+      <c r="T304" t="n">
+        <v>0</v>
       </c>
       <c r="U304" t="n">
         <v>0</v>
       </c>
-      <c r="V304" t="b">
+      <c r="V304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24198,13 +24197,13 @@
       <c r="S305" s="2" t="n">
         <v>44591</v>
       </c>
-      <c r="T305" s="3" t="n">
-        <v>-155</v>
+      <c r="T305" t="n">
+        <v>0</v>
       </c>
       <c r="U305" t="n">
         <v>0</v>
       </c>
-      <c r="V305" t="b">
+      <c r="V305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24272,13 +24271,13 @@
       <c r="S306" s="2" t="n">
         <v>44153</v>
       </c>
-      <c r="T306" s="3" t="n">
-        <v>-17</v>
+      <c r="T306" t="n">
+        <v>0</v>
       </c>
       <c r="U306" t="n">
         <v>0</v>
       </c>
-      <c r="V306" t="b">
+      <c r="V306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24346,13 +24345,13 @@
       <c r="S307" s="2" t="n">
         <v>44303</v>
       </c>
-      <c r="T307" s="3" t="n">
-        <v>-138</v>
+      <c r="T307" t="n">
+        <v>0</v>
       </c>
       <c r="U307" t="n">
         <v>0</v>
       </c>
-      <c r="V307" t="b">
+      <c r="V307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24420,13 +24419,13 @@
       <c r="S308" s="2" t="n">
         <v>44094</v>
       </c>
-      <c r="T308" s="3" t="n">
-        <v>-45</v>
+      <c r="T308" t="n">
+        <v>0</v>
       </c>
       <c r="U308" t="n">
         <v>0</v>
       </c>
-      <c r="V308" t="b">
+      <c r="V308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24494,13 +24493,13 @@
       <c r="S309" s="2" t="n">
         <v>43765</v>
       </c>
-      <c r="T309" s="3" t="n">
-        <v>-22</v>
+      <c r="T309" t="n">
+        <v>0</v>
       </c>
       <c r="U309" t="n">
         <v>0</v>
       </c>
-      <c r="V309" t="b">
+      <c r="V309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24568,13 +24567,13 @@
       <c r="S310" s="2" t="n">
         <v>44130</v>
       </c>
-      <c r="T310" s="3" t="n">
-        <v>-168</v>
+      <c r="T310" t="n">
+        <v>0</v>
       </c>
       <c r="U310" t="n">
         <v>0</v>
       </c>
-      <c r="V310" t="b">
+      <c r="V310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24646,13 +24645,13 @@
       <c r="S311" s="2" t="n">
         <v>43675</v>
       </c>
-      <c r="T311" s="3" t="n">
-        <v>18</v>
+      <c r="T311" t="n">
+        <v>1</v>
       </c>
       <c r="U311" t="n">
         <v>0</v>
       </c>
-      <c r="V311" t="b">
+      <c r="V311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24720,13 +24719,13 @@
       <c r="S312" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="T312" s="3" t="n">
-        <v>-85</v>
+      <c r="T312" t="n">
+        <v>0</v>
       </c>
       <c r="U312" t="n">
         <v>0</v>
       </c>
-      <c r="V312" t="b">
+      <c r="V312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24794,13 +24793,13 @@
       <c r="S313" s="2" t="n">
         <v>44825</v>
       </c>
-      <c r="T313" s="3" t="n">
-        <v>-153</v>
+      <c r="T313" t="n">
+        <v>0</v>
       </c>
       <c r="U313" t="n">
         <v>0</v>
       </c>
-      <c r="V313" t="b">
+      <c r="V313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24868,13 +24867,13 @@
       <c r="S314" s="2" t="n">
         <v>44653</v>
       </c>
-      <c r="T314" s="3" t="n">
-        <v>-42</v>
+      <c r="T314" t="n">
+        <v>0</v>
       </c>
       <c r="U314" t="n">
         <v>0</v>
       </c>
-      <c r="V314" t="b">
+      <c r="V314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24942,13 +24941,13 @@
       <c r="S315" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="T315" s="3" t="n">
-        <v>-40</v>
+      <c r="T315" t="n">
+        <v>0</v>
       </c>
       <c r="U315" t="n">
         <v>0</v>
       </c>
-      <c r="V315" t="b">
+      <c r="V315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25016,13 +25015,13 @@
       <c r="S316" s="2" t="n">
         <v>43741</v>
       </c>
-      <c r="T316" s="3" t="n">
-        <v>-161</v>
+      <c r="T316" t="n">
+        <v>0</v>
       </c>
       <c r="U316" t="n">
         <v>0</v>
       </c>
-      <c r="V316" t="b">
+      <c r="V316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25090,13 +25089,13 @@
       <c r="S317" s="2" t="n">
         <v>44455</v>
       </c>
-      <c r="T317" s="3" t="n">
-        <v>-41</v>
+      <c r="T317" t="n">
+        <v>0</v>
       </c>
       <c r="U317" t="n">
         <v>0</v>
       </c>
-      <c r="V317" t="b">
+      <c r="V317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25164,13 +25163,13 @@
       <c r="S318" s="2" t="n">
         <v>44796</v>
       </c>
-      <c r="T318" s="3" t="n">
-        <v>-24</v>
+      <c r="T318" t="n">
+        <v>0</v>
       </c>
       <c r="U318" t="n">
         <v>0</v>
       </c>
-      <c r="V318" t="b">
+      <c r="V318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25238,13 +25237,13 @@
       <c r="S319" s="2" t="n">
         <v>43316</v>
       </c>
-      <c r="T319" s="3" t="n">
-        <v>-103</v>
+      <c r="T319" t="n">
+        <v>0</v>
       </c>
       <c r="U319" t="n">
         <v>0</v>
       </c>
-      <c r="V319" t="b">
+      <c r="V319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25312,13 +25311,13 @@
       <c r="S320" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="T320" s="3" t="n">
-        <v>-66</v>
+      <c r="T320" t="n">
+        <v>0</v>
       </c>
       <c r="U320" t="n">
         <v>0</v>
       </c>
-      <c r="V320" t="b">
+      <c r="V320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25386,13 +25385,13 @@
       <c r="S321" s="2" t="n">
         <v>43308</v>
       </c>
-      <c r="T321" s="3" t="n">
-        <v>-122</v>
+      <c r="T321" t="n">
+        <v>0</v>
       </c>
       <c r="U321" t="n">
         <v>0</v>
       </c>
-      <c r="V321" t="b">
+      <c r="V321" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25460,13 +25459,13 @@
       <c r="S322" s="2" t="n">
         <v>43361</v>
       </c>
-      <c r="T322" s="3" t="n">
-        <v>-15</v>
+      <c r="T322" t="n">
+        <v>0</v>
       </c>
       <c r="U322" t="n">
         <v>0</v>
       </c>
-      <c r="V322" t="b">
+      <c r="V322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25534,13 +25533,13 @@
       <c r="S323" s="2" t="n">
         <v>44381</v>
       </c>
-      <c r="T323" s="3" t="n">
-        <v>-174</v>
+      <c r="T323" t="n">
+        <v>0</v>
       </c>
       <c r="U323" t="n">
         <v>0</v>
       </c>
-      <c r="V323" t="b">
+      <c r="V323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25612,13 +25611,13 @@
       <c r="S324" s="2" t="n">
         <v>43503</v>
       </c>
-      <c r="T324" s="3" t="n">
-        <v>5</v>
+      <c r="T324" t="n">
+        <v>1</v>
       </c>
       <c r="U324" t="n">
         <v>0</v>
       </c>
-      <c r="V324" t="b">
+      <c r="V324" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25686,13 +25685,13 @@
       <c r="S325" s="2" t="n">
         <v>44678</v>
       </c>
-      <c r="T325" s="3" t="n">
-        <v>-79</v>
+      <c r="T325" t="n">
+        <v>0</v>
       </c>
       <c r="U325" t="n">
         <v>0</v>
       </c>
-      <c r="V325" t="b">
+      <c r="V325" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25760,13 +25759,13 @@
       <c r="S326" s="2" t="n">
         <v>44966</v>
       </c>
-      <c r="T326" s="3" t="n">
-        <v>-170</v>
+      <c r="T326" t="n">
+        <v>0</v>
       </c>
       <c r="U326" t="n">
         <v>0</v>
       </c>
-      <c r="V326" t="b">
+      <c r="V326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25838,13 +25837,13 @@
       <c r="S327" s="2" t="n">
         <v>45049</v>
       </c>
-      <c r="T327" s="3" t="n">
-        <v>15</v>
+      <c r="T327" t="n">
+        <v>1</v>
       </c>
       <c r="U327" t="n">
         <v>0</v>
       </c>
-      <c r="V327" t="b">
+      <c r="V327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25905,10 +25904,10 @@
         <v>0</v>
       </c>
       <c r="P328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R328" t="n">
         <v>0</v>
@@ -25916,13 +25915,13 @@
       <c r="S328" s="2" t="n">
         <v>43422</v>
       </c>
-      <c r="T328" s="3" t="n">
-        <v>-131</v>
+      <c r="T328" t="n">
+        <v>0</v>
       </c>
       <c r="U328" t="n">
         <v>0</v>
       </c>
-      <c r="V328" t="b">
+      <c r="V328" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25990,13 +25989,13 @@
       <c r="S329" s="2" t="n">
         <v>44258</v>
       </c>
-      <c r="T329" s="3" t="n">
-        <v>-175</v>
+      <c r="T329" t="n">
+        <v>0</v>
       </c>
       <c r="U329" t="n">
         <v>0</v>
       </c>
-      <c r="V329" t="b">
+      <c r="V329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26068,13 +26067,13 @@
       <c r="S330" s="2" t="n">
         <v>44039</v>
       </c>
-      <c r="T330" s="3" t="n">
-        <v>-103</v>
+      <c r="T330" t="n">
+        <v>0</v>
       </c>
       <c r="U330" t="n">
         <v>0</v>
       </c>
-      <c r="V330" t="b">
+      <c r="V330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26142,13 +26141,13 @@
       <c r="S331" s="2" t="n">
         <v>44852</v>
       </c>
-      <c r="T331" s="3" t="n">
-        <v>-95</v>
+      <c r="T331" t="n">
+        <v>0</v>
       </c>
       <c r="U331" t="n">
         <v>0</v>
       </c>
-      <c r="V331" t="b">
+      <c r="V331" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26216,13 +26215,13 @@
       <c r="S332" s="2" t="n">
         <v>44783</v>
       </c>
-      <c r="T332" s="3" t="n">
-        <v>-34</v>
+      <c r="T332" t="n">
+        <v>0</v>
       </c>
       <c r="U332" t="n">
         <v>0</v>
       </c>
-      <c r="V332" t="b">
+      <c r="V332" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26290,13 +26289,13 @@
       <c r="S333" s="2" t="n">
         <v>43531</v>
       </c>
-      <c r="T333" s="3" t="n">
-        <v>-53</v>
+      <c r="T333" t="n">
+        <v>0</v>
       </c>
       <c r="U333" t="n">
         <v>0</v>
       </c>
-      <c r="V333" t="b">
+      <c r="V333" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26364,13 +26363,13 @@
       <c r="S334" s="2" t="n">
         <v>43532</v>
       </c>
-      <c r="T334" s="3" t="n">
-        <v>-92</v>
+      <c r="T334" t="n">
+        <v>0</v>
       </c>
       <c r="U334" t="n">
         <v>0</v>
       </c>
-      <c r="V334" t="b">
+      <c r="V334" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26438,13 +26437,13 @@
       <c r="S335" s="2" t="n">
         <v>44465</v>
       </c>
-      <c r="T335" s="3" t="n">
-        <v>-60</v>
+      <c r="T335" t="n">
+        <v>0</v>
       </c>
       <c r="U335" t="n">
         <v>0</v>
       </c>
-      <c r="V335" t="b">
+      <c r="V335" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26516,13 +26515,13 @@
       <c r="S336" s="2" t="n">
         <v>43731</v>
       </c>
-      <c r="T336" s="3" t="n">
-        <v>11</v>
+      <c r="T336" t="n">
+        <v>1</v>
       </c>
       <c r="U336" t="n">
         <v>0</v>
       </c>
-      <c r="V336" t="b">
+      <c r="V336" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26594,13 +26593,13 @@
       <c r="S337" s="2" t="n">
         <v>44335</v>
       </c>
-      <c r="T337" s="3" t="n">
-        <v>4</v>
+      <c r="T337" t="n">
+        <v>1</v>
       </c>
       <c r="U337" t="n">
         <v>0</v>
       </c>
-      <c r="V337" t="b">
+      <c r="V337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26668,13 +26667,13 @@
       <c r="S338" s="2" t="n">
         <v>44629</v>
       </c>
-      <c r="T338" s="3" t="n">
-        <v>-21</v>
+      <c r="T338" t="n">
+        <v>0</v>
       </c>
       <c r="U338" t="n">
         <v>0</v>
       </c>
-      <c r="V338" t="b">
+      <c r="V338" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26742,13 +26741,13 @@
       <c r="S339" s="2" t="n">
         <v>43923</v>
       </c>
-      <c r="T339" s="3" t="n">
-        <v>-19</v>
+      <c r="T339" t="n">
+        <v>0</v>
       </c>
       <c r="U339" t="n">
         <v>0</v>
       </c>
-      <c r="V339" t="b">
+      <c r="V339" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26816,13 +26815,13 @@
       <c r="S340" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="T340" s="3" t="n">
-        <v>-106</v>
+      <c r="T340" t="n">
+        <v>0</v>
       </c>
       <c r="U340" t="n">
         <v>0</v>
       </c>
-      <c r="V340" t="b">
+      <c r="V340" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26890,13 +26889,13 @@
       <c r="S341" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="T341" s="3" t="n">
-        <v>-167</v>
+      <c r="T341" t="n">
+        <v>0</v>
       </c>
       <c r="U341" t="n">
         <v>0</v>
       </c>
-      <c r="V341" t="b">
+      <c r="V341" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26964,13 +26963,13 @@
       <c r="S342" s="2" t="n">
         <v>43939</v>
       </c>
-      <c r="T342" s="3" t="n">
-        <v>-30</v>
+      <c r="T342" t="n">
+        <v>0</v>
       </c>
       <c r="U342" t="n">
         <v>0</v>
       </c>
-      <c r="V342" t="b">
+      <c r="V342" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27038,13 +27037,13 @@
       <c r="S343" s="2" t="n">
         <v>44622</v>
       </c>
-      <c r="T343" s="3" t="n">
-        <v>-146</v>
+      <c r="T343" t="n">
+        <v>0</v>
       </c>
       <c r="U343" t="n">
         <v>0</v>
       </c>
-      <c r="V343" t="b">
+      <c r="V343" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27116,13 +27115,13 @@
       <c r="S344" s="2" t="n">
         <v>44234</v>
       </c>
-      <c r="T344" s="3" t="n">
-        <v>5</v>
+      <c r="T344" t="n">
+        <v>1</v>
       </c>
       <c r="U344" t="n">
         <v>0</v>
       </c>
-      <c r="V344" t="b">
+      <c r="V344" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27194,13 +27193,13 @@
       <c r="S345" s="2" t="n">
         <v>43301</v>
       </c>
-      <c r="T345" s="3" t="n">
-        <v>18</v>
+      <c r="T345" t="n">
+        <v>1</v>
       </c>
       <c r="U345" t="n">
         <v>0</v>
       </c>
-      <c r="V345" t="b">
+      <c r="V345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27268,13 +27267,13 @@
       <c r="S346" s="2" t="n">
         <v>43411</v>
       </c>
-      <c r="T346" s="3" t="n">
-        <v>-76</v>
+      <c r="T346" t="n">
+        <v>0</v>
       </c>
       <c r="U346" t="n">
         <v>0</v>
       </c>
-      <c r="V346" t="b">
+      <c r="V346" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27342,13 +27341,13 @@
       <c r="S347" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="T347" s="3" t="n">
-        <v>-66</v>
+      <c r="T347" t="n">
+        <v>0</v>
       </c>
       <c r="U347" t="n">
         <v>0</v>
       </c>
-      <c r="V347" t="b">
+      <c r="V347" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27416,13 +27415,13 @@
       <c r="S348" s="2" t="n">
         <v>44497</v>
       </c>
-      <c r="T348" s="3" t="n">
-        <v>-126</v>
+      <c r="T348" t="n">
+        <v>0</v>
       </c>
       <c r="U348" t="n">
         <v>0</v>
       </c>
-      <c r="V348" t="b">
+      <c r="V348" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27490,13 +27489,13 @@
       <c r="S349" s="2" t="n">
         <v>44110</v>
       </c>
-      <c r="T349" s="3" t="n">
-        <v>-91</v>
+      <c r="T349" t="n">
+        <v>0</v>
       </c>
       <c r="U349" t="n">
         <v>0</v>
       </c>
-      <c r="V349" t="b">
+      <c r="V349" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27564,13 +27563,13 @@
       <c r="S350" s="2" t="n">
         <v>44853</v>
       </c>
-      <c r="T350" s="3" t="n">
-        <v>-144</v>
+      <c r="T350" t="n">
+        <v>0</v>
       </c>
       <c r="U350" t="n">
         <v>0</v>
       </c>
-      <c r="V350" t="b">
+      <c r="V350" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27638,13 +27637,13 @@
       <c r="S351" s="2" t="n">
         <v>45026</v>
       </c>
-      <c r="T351" s="3" t="n">
-        <v>-174</v>
+      <c r="T351" t="n">
+        <v>0</v>
       </c>
       <c r="U351" t="n">
         <v>0</v>
       </c>
-      <c r="V351" t="b">
+      <c r="V351" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27712,13 +27711,13 @@
       <c r="S352" s="2" t="n">
         <v>43574</v>
       </c>
-      <c r="T352" s="3" t="n">
-        <v>-137</v>
+      <c r="T352" t="n">
+        <v>0</v>
       </c>
       <c r="U352" t="n">
         <v>0</v>
       </c>
-      <c r="V352" t="b">
+      <c r="V352" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27786,13 +27785,13 @@
       <c r="S353" s="2" t="n">
         <v>43887</v>
       </c>
-      <c r="T353" s="3" t="n">
-        <v>-74</v>
+      <c r="T353" t="n">
+        <v>0</v>
       </c>
       <c r="U353" t="n">
         <v>0</v>
       </c>
-      <c r="V353" t="b">
+      <c r="V353" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27860,13 +27859,13 @@
       <c r="S354" s="2" t="n">
         <v>44023</v>
       </c>
-      <c r="T354" s="3" t="n">
-        <v>-64</v>
+      <c r="T354" t="n">
+        <v>0</v>
       </c>
       <c r="U354" t="n">
         <v>0</v>
       </c>
-      <c r="V354" t="b">
+      <c r="V354" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27934,13 +27933,13 @@
       <c r="S355" s="2" t="n">
         <v>43728</v>
       </c>
-      <c r="T355" s="3" t="n">
-        <v>-11</v>
+      <c r="T355" t="n">
+        <v>0</v>
       </c>
       <c r="U355" t="n">
         <v>0</v>
       </c>
-      <c r="V355" t="b">
+      <c r="V355" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28008,13 +28007,13 @@
       <c r="S356" s="2" t="n">
         <v>43468</v>
       </c>
-      <c r="T356" s="3" t="n">
-        <v>-101</v>
+      <c r="T356" t="n">
+        <v>0</v>
       </c>
       <c r="U356" t="n">
         <v>0</v>
       </c>
-      <c r="V356" t="b">
+      <c r="V356" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28082,13 +28081,13 @@
       <c r="S357" s="2" t="n">
         <v>43927</v>
       </c>
-      <c r="T357" s="3" t="n">
-        <v>-146</v>
+      <c r="T357" t="n">
+        <v>0</v>
       </c>
       <c r="U357" t="n">
         <v>0</v>
       </c>
-      <c r="V357" t="b">
+      <c r="V357" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28156,13 +28155,13 @@
       <c r="S358" s="2" t="n">
         <v>43938</v>
       </c>
-      <c r="T358" s="3" t="n">
-        <v>-73</v>
+      <c r="T358" t="n">
+        <v>0</v>
       </c>
       <c r="U358" t="n">
         <v>0</v>
       </c>
-      <c r="V358" t="b">
+      <c r="V358" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28230,13 +28229,13 @@
       <c r="S359" s="2" t="n">
         <v>43578</v>
       </c>
-      <c r="T359" s="3" t="n">
-        <v>-32</v>
+      <c r="T359" t="n">
+        <v>0</v>
       </c>
       <c r="U359" t="n">
         <v>0</v>
       </c>
-      <c r="V359" t="b">
+      <c r="V359" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28304,13 +28303,13 @@
       <c r="S360" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="T360" s="3" t="n">
-        <v>-164</v>
+      <c r="T360" t="n">
+        <v>0</v>
       </c>
       <c r="U360" t="n">
         <v>0</v>
       </c>
-      <c r="V360" t="b">
+      <c r="V360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28378,13 +28377,13 @@
       <c r="S361" s="2" t="n">
         <v>44040</v>
       </c>
-      <c r="T361" s="3" t="n">
-        <v>-111</v>
+      <c r="T361" t="n">
+        <v>0</v>
       </c>
       <c r="U361" t="n">
         <v>0</v>
       </c>
-      <c r="V361" t="b">
+      <c r="V361" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28452,13 +28451,13 @@
       <c r="S362" s="2" t="n">
         <v>43322</v>
       </c>
-      <c r="T362" s="3" t="n">
-        <v>-66</v>
+      <c r="T362" t="n">
+        <v>0</v>
       </c>
       <c r="U362" t="n">
         <v>0</v>
       </c>
-      <c r="V362" t="b">
+      <c r="V362" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28526,13 +28525,13 @@
       <c r="S363" s="2" t="n">
         <v>45087</v>
       </c>
-      <c r="T363" s="3" t="n">
-        <v>-81</v>
+      <c r="T363" t="n">
+        <v>0</v>
       </c>
       <c r="U363" t="n">
         <v>0</v>
       </c>
-      <c r="V363" t="b">
+      <c r="V363" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28600,13 +28599,13 @@
       <c r="S364" s="2" t="n">
         <v>44871</v>
       </c>
-      <c r="T364" s="3" t="n">
-        <v>-134</v>
+      <c r="T364" t="n">
+        <v>0</v>
       </c>
       <c r="U364" t="n">
         <v>0</v>
       </c>
-      <c r="V364" t="b">
+      <c r="V364" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28674,13 +28673,13 @@
       <c r="S365" s="2" t="n">
         <v>45060</v>
       </c>
-      <c r="T365" s="3" t="n">
-        <v>-28</v>
+      <c r="T365" t="n">
+        <v>0</v>
       </c>
       <c r="U365" t="n">
         <v>0</v>
       </c>
-      <c r="V365" t="b">
+      <c r="V365" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28748,13 +28747,13 @@
       <c r="S366" s="2" t="n">
         <v>43558</v>
       </c>
-      <c r="T366" s="3" t="n">
-        <v>-111</v>
+      <c r="T366" t="n">
+        <v>0</v>
       </c>
       <c r="U366" t="n">
         <v>0</v>
       </c>
-      <c r="V366" t="b">
+      <c r="V366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28826,13 +28825,13 @@
       <c r="S367" s="2" t="n">
         <v>44460</v>
       </c>
-      <c r="T367" s="3" t="n">
-        <v>12</v>
+      <c r="T367" t="n">
+        <v>1</v>
       </c>
       <c r="U367" t="n">
         <v>0</v>
       </c>
-      <c r="V367" t="b">
+      <c r="V367" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28900,13 +28899,13 @@
       <c r="S368" s="2" t="n">
         <v>44747</v>
       </c>
-      <c r="T368" s="3" t="n">
-        <v>-109</v>
+      <c r="T368" t="n">
+        <v>0</v>
       </c>
       <c r="U368" t="n">
         <v>0</v>
       </c>
-      <c r="V368" t="b">
+      <c r="V368" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28978,13 +28977,13 @@
       <c r="S369" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="T369" s="3" t="n">
-        <v>6</v>
+      <c r="T369" t="n">
+        <v>1</v>
       </c>
       <c r="U369" t="n">
         <v>0</v>
       </c>
-      <c r="V369" t="b">
+      <c r="V369" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29052,13 +29051,13 @@
       <c r="S370" s="2" t="n">
         <v>44426</v>
       </c>
-      <c r="T370" s="3" t="n">
-        <v>-168</v>
+      <c r="T370" t="n">
+        <v>0</v>
       </c>
       <c r="U370" t="n">
         <v>0</v>
       </c>
-      <c r="V370" t="b">
+      <c r="V370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29126,13 +29125,13 @@
       <c r="S371" s="2" t="n">
         <v>44648</v>
       </c>
-      <c r="T371" s="3" t="n">
-        <v>-175</v>
+      <c r="T371" t="n">
+        <v>0</v>
       </c>
       <c r="U371" t="n">
         <v>0</v>
       </c>
-      <c r="V371" t="b">
+      <c r="V371" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29200,13 +29199,13 @@
       <c r="S372" s="2" t="n">
         <v>43900</v>
       </c>
-      <c r="T372" s="3" t="n">
-        <v>-114</v>
+      <c r="T372" t="n">
+        <v>0</v>
       </c>
       <c r="U372" t="n">
         <v>0</v>
       </c>
-      <c r="V372" t="b">
+      <c r="V372" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29274,13 +29273,13 @@
       <c r="S373" s="2" t="n">
         <v>43314</v>
       </c>
-      <c r="T373" s="3" t="n">
-        <v>-150</v>
+      <c r="T373" t="n">
+        <v>0</v>
       </c>
       <c r="U373" t="n">
         <v>0</v>
       </c>
-      <c r="V373" t="b">
+      <c r="V373" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29348,13 +29347,13 @@
       <c r="S374" s="2" t="n">
         <v>44963</v>
       </c>
-      <c r="T374" s="3" t="n">
-        <v>-172</v>
+      <c r="T374" t="n">
+        <v>0</v>
       </c>
       <c r="U374" t="n">
         <v>0</v>
       </c>
-      <c r="V374" t="b">
+      <c r="V374" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29422,13 +29421,13 @@
       <c r="S375" s="2" t="n">
         <v>44547</v>
       </c>
-      <c r="T375" s="3" t="n">
-        <v>-24</v>
+      <c r="T375" t="n">
+        <v>0</v>
       </c>
       <c r="U375" t="n">
         <v>0</v>
       </c>
-      <c r="V375" t="b">
+      <c r="V375" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29496,13 +29495,13 @@
       <c r="S376" s="2" t="n">
         <v>43814</v>
       </c>
-      <c r="T376" s="3" t="n">
-        <v>-41</v>
+      <c r="T376" t="n">
+        <v>0</v>
       </c>
       <c r="U376" t="n">
         <v>0</v>
       </c>
-      <c r="V376" t="b">
+      <c r="V376" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29570,13 +29569,13 @@
       <c r="S377" s="2" t="n">
         <v>43930</v>
       </c>
-      <c r="T377" s="3" t="n">
-        <v>-9</v>
+      <c r="T377" t="n">
+        <v>0</v>
       </c>
       <c r="U377" t="n">
         <v>0</v>
       </c>
-      <c r="V377" t="b">
+      <c r="V377" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29644,13 +29643,13 @@
       <c r="S378" s="2" t="n">
         <v>44867</v>
       </c>
-      <c r="T378" s="3" t="n">
-        <v>-2</v>
+      <c r="T378" t="n">
+        <v>0</v>
       </c>
       <c r="U378" t="n">
         <v>0</v>
       </c>
-      <c r="V378" t="b">
+      <c r="V378" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29718,13 +29717,13 @@
       <c r="S379" s="2" t="n">
         <v>44081</v>
       </c>
-      <c r="T379" s="3" t="n">
-        <v>-124</v>
+      <c r="T379" t="n">
+        <v>0</v>
       </c>
       <c r="U379" t="n">
         <v>0</v>
       </c>
-      <c r="V379" t="b">
+      <c r="V379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29792,13 +29791,13 @@
       <c r="S380" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="T380" s="3" t="n">
-        <v>-58</v>
+      <c r="T380" t="n">
+        <v>0</v>
       </c>
       <c r="U380" t="n">
         <v>0</v>
       </c>
-      <c r="V380" t="b">
+      <c r="V380" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29866,13 +29865,13 @@
       <c r="S381" s="2" t="n">
         <v>44238</v>
       </c>
-      <c r="T381" s="3" t="n">
-        <v>-21</v>
+      <c r="T381" t="n">
+        <v>0</v>
       </c>
       <c r="U381" t="n">
         <v>0</v>
       </c>
-      <c r="V381" t="b">
+      <c r="V381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29940,13 +29939,13 @@
       <c r="S382" s="2" t="n">
         <v>43667</v>
       </c>
-      <c r="T382" s="3" t="n">
-        <v>-102</v>
+      <c r="T382" t="n">
+        <v>0</v>
       </c>
       <c r="U382" t="n">
         <v>0</v>
       </c>
-      <c r="V382" t="b">
+      <c r="V382" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30014,13 +30013,13 @@
       <c r="S383" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="T383" s="3" t="n">
-        <v>-34</v>
+      <c r="T383" t="n">
+        <v>0</v>
       </c>
       <c r="U383" t="n">
         <v>0</v>
       </c>
-      <c r="V383" t="b">
+      <c r="V383" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30088,13 +30087,13 @@
       <c r="S384" s="2" t="n">
         <v>43802</v>
       </c>
-      <c r="T384" s="3" t="n">
-        <v>-98</v>
+      <c r="T384" t="n">
+        <v>0</v>
       </c>
       <c r="U384" t="n">
         <v>0</v>
       </c>
-      <c r="V384" t="b">
+      <c r="V384" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30162,13 +30161,13 @@
       <c r="S385" s="2" t="n">
         <v>44134</v>
       </c>
-      <c r="T385" s="3" t="n">
-        <v>-45</v>
+      <c r="T385" t="n">
+        <v>0</v>
       </c>
       <c r="U385" t="n">
         <v>0</v>
       </c>
-      <c r="V385" t="b">
+      <c r="V385" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30236,13 +30235,13 @@
       <c r="S386" s="2" t="n">
         <v>44015</v>
       </c>
-      <c r="T386" s="3" t="n">
-        <v>-88</v>
+      <c r="T386" t="n">
+        <v>0</v>
       </c>
       <c r="U386" t="n">
         <v>0</v>
       </c>
-      <c r="V386" t="b">
+      <c r="V386" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30310,13 +30309,13 @@
       <c r="S387" s="2" t="n">
         <v>44050</v>
       </c>
-      <c r="T387" s="3" t="n">
-        <v>-50</v>
+      <c r="T387" t="n">
+        <v>0</v>
       </c>
       <c r="U387" t="n">
         <v>0</v>
       </c>
-      <c r="V387" t="b">
+      <c r="V387" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30384,13 +30383,13 @@
       <c r="S388" s="2" t="n">
         <v>43778</v>
       </c>
-      <c r="T388" s="3" t="n">
-        <v>-83</v>
+      <c r="T388" t="n">
+        <v>0</v>
       </c>
       <c r="U388" t="n">
         <v>0</v>
       </c>
-      <c r="V388" t="b">
+      <c r="V388" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30458,13 +30457,13 @@
       <c r="S389" s="2" t="n">
         <v>44586</v>
       </c>
-      <c r="T389" s="3" t="n">
-        <v>-153</v>
+      <c r="T389" t="n">
+        <v>0</v>
       </c>
       <c r="U389" t="n">
         <v>0</v>
       </c>
-      <c r="V389" t="b">
+      <c r="V389" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30532,13 +30531,13 @@
       <c r="S390" s="2" t="n">
         <v>43658</v>
       </c>
-      <c r="T390" s="3" t="n">
-        <v>-160</v>
+      <c r="T390" t="n">
+        <v>0</v>
       </c>
       <c r="U390" t="n">
         <v>0</v>
       </c>
-      <c r="V390" t="b">
+      <c r="V390" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30606,13 +30605,13 @@
       <c r="S391" s="2" t="n">
         <v>43286</v>
       </c>
-      <c r="T391" s="3" t="n">
-        <v>-170</v>
+      <c r="T391" t="n">
+        <v>0</v>
       </c>
       <c r="U391" t="n">
         <v>0</v>
       </c>
-      <c r="V391" t="b">
+      <c r="V391" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30680,13 +30679,13 @@
       <c r="S392" s="2" t="n">
         <v>44076</v>
       </c>
-      <c r="T392" s="3" t="n">
-        <v>-101</v>
+      <c r="T392" t="n">
+        <v>0</v>
       </c>
       <c r="U392" t="n">
         <v>0</v>
       </c>
-      <c r="V392" t="b">
+      <c r="V392" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30754,13 +30753,13 @@
       <c r="S393" s="2" t="n">
         <v>43364</v>
       </c>
-      <c r="T393" s="3" t="n">
-        <v>-51</v>
+      <c r="T393" t="n">
+        <v>0</v>
       </c>
       <c r="U393" t="n">
         <v>0</v>
       </c>
-      <c r="V393" t="b">
+      <c r="V393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30828,13 +30827,13 @@
       <c r="S394" s="2" t="n">
         <v>44282</v>
       </c>
-      <c r="T394" s="3" t="n">
-        <v>-8</v>
+      <c r="T394" t="n">
+        <v>0</v>
       </c>
       <c r="U394" t="n">
         <v>0</v>
       </c>
-      <c r="V394" t="b">
+      <c r="V394" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30902,13 +30901,13 @@
       <c r="S395" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="T395" s="3" t="n">
-        <v>-124</v>
+      <c r="T395" t="n">
+        <v>0</v>
       </c>
       <c r="U395" t="n">
         <v>0</v>
       </c>
-      <c r="V395" t="b">
+      <c r="V395" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30976,13 +30975,13 @@
       <c r="S396" s="2" t="n">
         <v>43627</v>
       </c>
-      <c r="T396" s="3" t="n">
-        <v>-151</v>
+      <c r="T396" t="n">
+        <v>0</v>
       </c>
       <c r="U396" t="n">
         <v>0</v>
       </c>
-      <c r="V396" t="b">
+      <c r="V396" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31050,13 +31049,13 @@
       <c r="S397" s="2" t="n">
         <v>44271</v>
       </c>
-      <c r="T397" s="3" t="n">
-        <v>-36</v>
+      <c r="T397" t="n">
+        <v>0</v>
       </c>
       <c r="U397" t="n">
         <v>0</v>
       </c>
-      <c r="V397" t="b">
+      <c r="V397" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31124,13 +31123,13 @@
       <c r="S398" s="2" t="n">
         <v>43701</v>
       </c>
-      <c r="T398" s="3" t="n">
-        <v>-86</v>
+      <c r="T398" t="n">
+        <v>0</v>
       </c>
       <c r="U398" t="n">
         <v>0</v>
       </c>
-      <c r="V398" t="b">
+      <c r="V398" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31198,13 +31197,13 @@
       <c r="S399" s="2" t="n">
         <v>43930</v>
       </c>
-      <c r="T399" s="3" t="n">
-        <v>-163</v>
+      <c r="T399" t="n">
+        <v>0</v>
       </c>
       <c r="U399" t="n">
         <v>0</v>
       </c>
-      <c r="V399" t="b">
+      <c r="V399" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31272,13 +31271,13 @@
       <c r="S400" s="2" t="n">
         <v>44236</v>
       </c>
-      <c r="T400" s="3" t="n">
-        <v>-82</v>
+      <c r="T400" t="n">
+        <v>0</v>
       </c>
       <c r="U400" t="n">
         <v>0</v>
       </c>
-      <c r="V400" t="b">
+      <c r="V400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31346,13 +31345,13 @@
       <c r="S401" s="2" t="n">
         <v>43890</v>
       </c>
-      <c r="T401" s="3" t="n">
-        <v>-102</v>
+      <c r="T401" t="n">
+        <v>0</v>
       </c>
       <c r="U401" t="n">
         <v>0</v>
       </c>
-      <c r="V401" t="b">
+      <c r="V401" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31420,13 +31419,13 @@
       <c r="S402" s="2" t="n">
         <v>44711</v>
       </c>
-      <c r="T402" s="3" t="n">
-        <v>-169</v>
+      <c r="T402" t="n">
+        <v>0</v>
       </c>
       <c r="U402" t="n">
         <v>0</v>
       </c>
-      <c r="V402" t="b">
+      <c r="V402" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31494,13 +31493,13 @@
       <c r="S403" s="2" t="n">
         <v>43651</v>
       </c>
-      <c r="T403" s="3" t="n">
-        <v>-67</v>
+      <c r="T403" t="n">
+        <v>0</v>
       </c>
       <c r="U403" t="n">
         <v>0</v>
       </c>
-      <c r="V403" t="b">
+      <c r="V403" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31568,13 +31567,13 @@
       <c r="S404" s="2" t="n">
         <v>44922</v>
       </c>
-      <c r="T404" s="3" t="n">
-        <v>-26</v>
+      <c r="T404" t="n">
+        <v>0</v>
       </c>
       <c r="U404" t="n">
         <v>0</v>
       </c>
-      <c r="V404" t="b">
+      <c r="V404" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31642,13 +31641,13 @@
       <c r="S405" s="2" t="n">
         <v>44520</v>
       </c>
-      <c r="T405" s="3" t="n">
-        <v>-30</v>
+      <c r="T405" t="n">
+        <v>0</v>
       </c>
       <c r="U405" t="n">
         <v>0</v>
       </c>
-      <c r="V405" t="b">
+      <c r="V405" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31716,13 +31715,13 @@
       <c r="S406" s="2" t="n">
         <v>44383</v>
       </c>
-      <c r="T406" s="3" t="n">
-        <v>-56</v>
+      <c r="T406" t="n">
+        <v>0</v>
       </c>
       <c r="U406" t="n">
         <v>0</v>
       </c>
-      <c r="V406" t="b">
+      <c r="V406" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31790,13 +31789,13 @@
       <c r="S407" s="2" t="n">
         <v>44972</v>
       </c>
-      <c r="T407" s="3" t="n">
-        <v>-162</v>
+      <c r="T407" t="n">
+        <v>0</v>
       </c>
       <c r="U407" t="n">
         <v>0</v>
       </c>
-      <c r="V407" t="b">
+      <c r="V407" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31864,13 +31863,13 @@
       <c r="S408" s="2" t="n">
         <v>44459</v>
       </c>
-      <c r="T408" s="3" t="n">
-        <v>-55</v>
+      <c r="T408" t="n">
+        <v>0</v>
       </c>
       <c r="U408" t="n">
         <v>0</v>
       </c>
-      <c r="V408" t="b">
+      <c r="V408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31938,13 +31937,13 @@
       <c r="S409" s="2" t="n">
         <v>43615</v>
       </c>
-      <c r="T409" s="3" t="n">
-        <v>-44</v>
+      <c r="T409" t="n">
+        <v>0</v>
       </c>
       <c r="U409" t="n">
         <v>0</v>
       </c>
-      <c r="V409" t="b">
+      <c r="V409" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32012,13 +32011,13 @@
       <c r="S410" s="2" t="n">
         <v>45093</v>
       </c>
-      <c r="T410" s="3" t="n">
-        <v>-139</v>
+      <c r="T410" t="n">
+        <v>0</v>
       </c>
       <c r="U410" t="n">
         <v>0</v>
       </c>
-      <c r="V410" t="b">
+      <c r="V410" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32086,13 +32085,13 @@
       <c r="S411" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="T411" s="3" t="n">
-        <v>-81</v>
+      <c r="T411" t="n">
+        <v>0</v>
       </c>
       <c r="U411" t="n">
         <v>0</v>
       </c>
-      <c r="V411" t="b">
+      <c r="V411" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32160,13 +32159,13 @@
       <c r="S412" s="2" t="n">
         <v>44840</v>
       </c>
-      <c r="T412" s="3" t="n">
-        <v>-82</v>
+      <c r="T412" t="n">
+        <v>0</v>
       </c>
       <c r="U412" t="n">
         <v>0</v>
       </c>
-      <c r="V412" t="b">
+      <c r="V412" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32234,13 +32233,13 @@
       <c r="S413" s="2" t="n">
         <v>43863</v>
       </c>
-      <c r="T413" s="3" t="n">
-        <v>-12</v>
+      <c r="T413" t="n">
+        <v>0</v>
       </c>
       <c r="U413" t="n">
         <v>0</v>
       </c>
-      <c r="V413" t="b">
+      <c r="V413" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32312,13 +32311,13 @@
       <c r="S414" s="2" t="n">
         <v>44086</v>
       </c>
-      <c r="T414" s="3" t="n">
-        <v>12</v>
+      <c r="T414" t="n">
+        <v>1</v>
       </c>
       <c r="U414" t="n">
         <v>0</v>
       </c>
-      <c r="V414" t="b">
+      <c r="V414" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32390,13 +32389,13 @@
       <c r="S415" s="2" t="n">
         <v>44349</v>
       </c>
-      <c r="T415" s="3" t="n">
-        <v>11</v>
+      <c r="T415" t="n">
+        <v>1</v>
       </c>
       <c r="U415" t="n">
         <v>0</v>
       </c>
-      <c r="V415" t="b">
+      <c r="V415" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32464,13 +32463,13 @@
       <c r="S416" s="2" t="n">
         <v>44951</v>
       </c>
-      <c r="T416" s="3" t="n">
-        <v>-173</v>
+      <c r="T416" t="n">
+        <v>0</v>
       </c>
       <c r="U416" t="n">
         <v>0</v>
       </c>
-      <c r="V416" t="b">
+      <c r="V416" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32538,13 +32537,13 @@
       <c r="S417" s="2" t="n">
         <v>43843</v>
       </c>
-      <c r="T417" s="3" t="n">
-        <v>-33</v>
+      <c r="T417" t="n">
+        <v>0</v>
       </c>
       <c r="U417" t="n">
         <v>0</v>
       </c>
-      <c r="V417" t="b">
+      <c r="V417" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32612,13 +32611,13 @@
       <c r="S418" s="2" t="n">
         <v>45039</v>
       </c>
-      <c r="T418" s="3" t="n">
-        <v>-120</v>
+      <c r="T418" t="n">
+        <v>0</v>
       </c>
       <c r="U418" t="n">
         <v>0</v>
       </c>
-      <c r="V418" t="b">
+      <c r="V418" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32686,13 +32685,13 @@
       <c r="S419" s="2" t="n">
         <v>44162</v>
       </c>
-      <c r="T419" s="3" t="n">
-        <v>-70</v>
+      <c r="T419" t="n">
+        <v>0</v>
       </c>
       <c r="U419" t="n">
         <v>0</v>
       </c>
-      <c r="V419" t="b">
+      <c r="V419" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32764,13 +32763,13 @@
       <c r="S420" s="2" t="n">
         <v>44658</v>
       </c>
-      <c r="T420" s="3" t="n">
-        <v>6</v>
+      <c r="T420" t="n">
+        <v>1</v>
       </c>
       <c r="U420" t="n">
         <v>0</v>
       </c>
-      <c r="V420" t="b">
+      <c r="V420" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32838,13 +32837,13 @@
       <c r="S421" s="2" t="n">
         <v>43493</v>
       </c>
-      <c r="T421" s="3" t="n">
-        <v>-34</v>
+      <c r="T421" t="n">
+        <v>0</v>
       </c>
       <c r="U421" t="n">
         <v>0</v>
       </c>
-      <c r="V421" t="b">
+      <c r="V421" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32912,13 +32911,13 @@
       <c r="S422" s="2" t="n">
         <v>43757</v>
       </c>
-      <c r="T422" s="3" t="n">
-        <v>-20</v>
+      <c r="T422" t="n">
+        <v>0</v>
       </c>
       <c r="U422" t="n">
         <v>0</v>
       </c>
-      <c r="V422" t="b">
+      <c r="V422" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32986,13 +32985,13 @@
       <c r="S423" s="2" t="n">
         <v>44295</v>
       </c>
-      <c r="T423" s="3" t="n">
-        <v>-167</v>
+      <c r="T423" t="n">
+        <v>0</v>
       </c>
       <c r="U423" t="n">
         <v>0</v>
       </c>
-      <c r="V423" t="b">
+      <c r="V423" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33060,13 +33059,13 @@
       <c r="S424" s="2" t="n">
         <v>43824</v>
       </c>
-      <c r="T424" s="3" t="n">
-        <v>-61</v>
+      <c r="T424" t="n">
+        <v>0</v>
       </c>
       <c r="U424" t="n">
         <v>0</v>
       </c>
-      <c r="V424" t="b">
+      <c r="V424" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33134,13 +33133,13 @@
       <c r="S425" s="2" t="n">
         <v>44067</v>
       </c>
-      <c r="T425" s="3" t="n">
-        <v>-51</v>
+      <c r="T425" t="n">
+        <v>0</v>
       </c>
       <c r="U425" t="n">
         <v>0</v>
       </c>
-      <c r="V425" t="b">
+      <c r="V425" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33208,13 +33207,13 @@
       <c r="S426" s="2" t="n">
         <v>44060</v>
       </c>
-      <c r="T426" s="3" t="n">
-        <v>-88</v>
+      <c r="T426" t="n">
+        <v>0</v>
       </c>
       <c r="U426" t="n">
         <v>0</v>
       </c>
-      <c r="V426" t="b">
+      <c r="V426" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33282,13 +33281,13 @@
       <c r="S427" s="2" t="n">
         <v>43463</v>
       </c>
-      <c r="T427" s="3" t="n">
-        <v>-19</v>
+      <c r="T427" t="n">
+        <v>0</v>
       </c>
       <c r="U427" t="n">
         <v>0</v>
       </c>
-      <c r="V427" t="b">
+      <c r="V427" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33356,13 +33355,13 @@
       <c r="S428" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="T428" s="3" t="n">
-        <v>-87</v>
+      <c r="T428" t="n">
+        <v>0</v>
       </c>
       <c r="U428" t="n">
         <v>0</v>
       </c>
-      <c r="V428" t="b">
+      <c r="V428" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33430,13 +33429,13 @@
       <c r="S429" s="2" t="n">
         <v>44983</v>
       </c>
-      <c r="T429" s="3" t="n">
-        <v>-133</v>
+      <c r="T429" t="n">
+        <v>0</v>
       </c>
       <c r="U429" t="n">
         <v>0</v>
       </c>
-      <c r="V429" t="b">
+      <c r="V429" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33504,13 +33503,13 @@
       <c r="S430" s="2" t="n">
         <v>43981</v>
       </c>
-      <c r="T430" s="3" t="n">
-        <v>-61</v>
+      <c r="T430" t="n">
+        <v>0</v>
       </c>
       <c r="U430" t="n">
         <v>0</v>
       </c>
-      <c r="V430" t="b">
+      <c r="V430" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33578,13 +33577,13 @@
       <c r="S431" s="2" t="n">
         <v>43369</v>
       </c>
-      <c r="T431" s="3" t="n">
-        <v>-85</v>
+      <c r="T431" t="n">
+        <v>0</v>
       </c>
       <c r="U431" t="n">
         <v>0</v>
       </c>
-      <c r="V431" t="b">
+      <c r="V431" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33652,13 +33651,13 @@
       <c r="S432" s="2" t="n">
         <v>43733</v>
       </c>
-      <c r="T432" s="3" t="n">
-        <v>-55</v>
+      <c r="T432" t="n">
+        <v>0</v>
       </c>
       <c r="U432" t="n">
         <v>0</v>
       </c>
-      <c r="V432" t="b">
+      <c r="V432" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33726,13 +33725,13 @@
       <c r="S433" s="2" t="n">
         <v>44063</v>
       </c>
-      <c r="T433" s="3" t="n">
-        <v>-157</v>
+      <c r="T433" t="n">
+        <v>0</v>
       </c>
       <c r="U433" t="n">
         <v>0</v>
       </c>
-      <c r="V433" t="b">
+      <c r="V433" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33800,13 +33799,13 @@
       <c r="S434" s="2" t="n">
         <v>43524</v>
       </c>
-      <c r="T434" s="3" t="n">
-        <v>-173</v>
+      <c r="T434" t="n">
+        <v>0</v>
       </c>
       <c r="U434" t="n">
         <v>0</v>
       </c>
-      <c r="V434" t="b">
+      <c r="V434" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33874,13 +33873,13 @@
       <c r="S435" s="2" t="n">
         <v>44077</v>
       </c>
-      <c r="T435" s="3" t="n">
-        <v>-76</v>
+      <c r="T435" t="n">
+        <v>0</v>
       </c>
       <c r="U435" t="n">
         <v>0</v>
       </c>
-      <c r="V435" t="b">
+      <c r="V435" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33952,13 +33951,13 @@
       <c r="S436" s="2" t="n">
         <v>44620</v>
       </c>
-      <c r="T436" s="3" t="n">
-        <v>14</v>
+      <c r="T436" t="n">
+        <v>1</v>
       </c>
       <c r="U436" t="n">
         <v>0</v>
       </c>
-      <c r="V436" t="b">
+      <c r="V436" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34026,13 +34025,13 @@
       <c r="S437" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="T437" s="3" t="n">
-        <v>-124</v>
+      <c r="T437" t="n">
+        <v>0</v>
       </c>
       <c r="U437" t="n">
         <v>0</v>
       </c>
-      <c r="V437" t="b">
+      <c r="V437" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34100,13 +34099,13 @@
       <c r="S438" s="2" t="n">
         <v>44795</v>
       </c>
-      <c r="T438" s="3" t="n">
-        <v>-70</v>
+      <c r="T438" t="n">
+        <v>0</v>
       </c>
       <c r="U438" t="n">
         <v>0</v>
       </c>
-      <c r="V438" t="b">
+      <c r="V438" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34174,13 +34173,13 @@
       <c r="S439" s="2" t="n">
         <v>43810</v>
       </c>
-      <c r="T439" s="3" t="n">
-        <v>-81</v>
+      <c r="T439" t="n">
+        <v>0</v>
       </c>
       <c r="U439" t="n">
         <v>0</v>
       </c>
-      <c r="V439" t="b">
+      <c r="V439" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34248,13 +34247,13 @@
       <c r="S440" s="2" t="n">
         <v>43487</v>
       </c>
-      <c r="T440" s="3" t="n">
-        <v>-169</v>
+      <c r="T440" t="n">
+        <v>0</v>
       </c>
       <c r="U440" t="n">
         <v>0</v>
       </c>
-      <c r="V440" t="b">
+      <c r="V440" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34322,13 +34321,13 @@
       <c r="S441" s="2" t="n">
         <v>44142</v>
       </c>
-      <c r="T441" s="3" t="n">
-        <v>-153</v>
+      <c r="T441" t="n">
+        <v>0</v>
       </c>
       <c r="U441" t="n">
         <v>0</v>
       </c>
-      <c r="V441" t="b">
+      <c r="V441" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34396,13 +34395,13 @@
       <c r="S442" s="2" t="n">
         <v>44338</v>
       </c>
-      <c r="T442" s="3" t="n">
-        <v>-119</v>
+      <c r="T442" t="n">
+        <v>0</v>
       </c>
       <c r="U442" t="n">
         <v>0</v>
       </c>
-      <c r="V442" t="b">
+      <c r="V442" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34470,13 +34469,13 @@
       <c r="S443" s="2" t="n">
         <v>43287</v>
       </c>
-      <c r="T443" s="3" t="n">
-        <v>-77</v>
+      <c r="T443" t="n">
+        <v>0</v>
       </c>
       <c r="U443" t="n">
         <v>0</v>
       </c>
-      <c r="V443" t="b">
+      <c r="V443" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34544,13 +34543,13 @@
       <c r="S444" s="2" t="n">
         <v>43474</v>
       </c>
-      <c r="T444" s="3" t="n">
-        <v>-104</v>
+      <c r="T444" t="n">
+        <v>0</v>
       </c>
       <c r="U444" t="n">
         <v>0</v>
       </c>
-      <c r="V444" t="b">
+      <c r="V444" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34618,13 +34617,13 @@
       <c r="S445" s="2" t="n">
         <v>43369</v>
       </c>
-      <c r="T445" s="3" t="n">
-        <v>-5</v>
+      <c r="T445" t="n">
+        <v>0</v>
       </c>
       <c r="U445" t="n">
         <v>0</v>
       </c>
-      <c r="V445" t="b">
+      <c r="V445" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34696,13 +34695,13 @@
       <c r="S446" s="2" t="n">
         <v>44119</v>
       </c>
-      <c r="T446" s="3" t="n">
-        <v>3</v>
+      <c r="T446" t="n">
+        <v>1</v>
       </c>
       <c r="U446" t="n">
         <v>0</v>
       </c>
-      <c r="V446" t="b">
+      <c r="V446" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34774,13 +34773,13 @@
       <c r="S447" s="2" t="n">
         <v>44737</v>
       </c>
-      <c r="T447" s="3" t="n">
-        <v>10</v>
+      <c r="T447" t="n">
+        <v>1</v>
       </c>
       <c r="U447" t="n">
         <v>0</v>
       </c>
-      <c r="V447" t="b">
+      <c r="V447" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34848,13 +34847,13 @@
       <c r="S448" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="T448" s="3" t="n">
-        <v>-114</v>
+      <c r="T448" t="n">
+        <v>0</v>
       </c>
       <c r="U448" t="n">
         <v>0</v>
       </c>
-      <c r="V448" t="b">
+      <c r="V448" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34922,13 +34921,13 @@
       <c r="S449" s="2" t="n">
         <v>43331</v>
       </c>
-      <c r="T449" s="3" t="n">
-        <v>-60</v>
+      <c r="T449" t="n">
+        <v>0</v>
       </c>
       <c r="U449" t="n">
         <v>0</v>
       </c>
-      <c r="V449" t="b">
+      <c r="V449" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34996,13 +34995,13 @@
       <c r="S450" s="2" t="n">
         <v>43837</v>
       </c>
-      <c r="T450" s="3" t="n">
-        <v>-70</v>
+      <c r="T450" t="n">
+        <v>0</v>
       </c>
       <c r="U450" t="n">
         <v>0</v>
       </c>
-      <c r="V450" t="b">
+      <c r="V450" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35070,13 +35069,13 @@
       <c r="S451" s="2" t="n">
         <v>44181</v>
       </c>
-      <c r="T451" s="3" t="n">
-        <v>-175</v>
+      <c r="T451" t="n">
+        <v>0</v>
       </c>
       <c r="U451" t="n">
         <v>0</v>
       </c>
-      <c r="V451" t="b">
+      <c r="V451" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35144,13 +35143,13 @@
       <c r="S452" s="2" t="n">
         <v>43637</v>
       </c>
-      <c r="T452" s="3" t="n">
-        <v>-55</v>
+      <c r="T452" t="n">
+        <v>0</v>
       </c>
       <c r="U452" t="n">
         <v>0</v>
       </c>
-      <c r="V452" t="b">
+      <c r="V452" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35218,13 +35217,13 @@
       <c r="S453" s="2" t="n">
         <v>44729</v>
       </c>
-      <c r="T453" s="3" t="n">
-        <v>-40</v>
+      <c r="T453" t="n">
+        <v>0</v>
       </c>
       <c r="U453" t="n">
         <v>0</v>
       </c>
-      <c r="V453" t="b">
+      <c r="V453" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35292,13 +35291,13 @@
       <c r="S454" s="2" t="n">
         <v>44553</v>
       </c>
-      <c r="T454" s="3" t="n">
-        <v>-165</v>
+      <c r="T454" t="n">
+        <v>0</v>
       </c>
       <c r="U454" t="n">
         <v>0</v>
       </c>
-      <c r="V454" t="b">
+      <c r="V454" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35366,13 +35365,13 @@
       <c r="S455" s="2" t="n">
         <v>44818</v>
       </c>
-      <c r="T455" s="3" t="n">
-        <v>-47</v>
+      <c r="T455" t="n">
+        <v>0</v>
       </c>
       <c r="U455" t="n">
         <v>0</v>
       </c>
-      <c r="V455" t="b">
+      <c r="V455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35440,13 +35439,13 @@
       <c r="S456" s="2" t="n">
         <v>43992</v>
       </c>
-      <c r="T456" s="3" t="n">
-        <v>-70</v>
+      <c r="T456" t="n">
+        <v>0</v>
       </c>
       <c r="U456" t="n">
         <v>0</v>
       </c>
-      <c r="V456" t="b">
+      <c r="V456" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35514,13 +35513,13 @@
       <c r="S457" s="2" t="n">
         <v>44875</v>
       </c>
-      <c r="T457" s="3" t="n">
-        <v>-102</v>
+      <c r="T457" t="n">
+        <v>0</v>
       </c>
       <c r="U457" t="n">
         <v>0</v>
       </c>
-      <c r="V457" t="b">
+      <c r="V457" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35588,13 +35587,13 @@
       <c r="S458" s="2" t="n">
         <v>44431</v>
       </c>
-      <c r="T458" s="3" t="n">
-        <v>-86</v>
+      <c r="T458" t="n">
+        <v>0</v>
       </c>
       <c r="U458" t="n">
         <v>0</v>
       </c>
-      <c r="V458" t="b">
+      <c r="V458" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35662,13 +35661,13 @@
       <c r="S459" s="2" t="n">
         <v>43541</v>
       </c>
-      <c r="T459" s="3" t="n">
-        <v>-140</v>
+      <c r="T459" t="n">
+        <v>0</v>
       </c>
       <c r="U459" t="n">
         <v>0</v>
       </c>
-      <c r="V459" t="b">
+      <c r="V459" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35740,13 +35739,13 @@
       <c r="S460" s="2" t="n">
         <v>44934</v>
       </c>
-      <c r="T460" s="3" t="n">
-        <v>15</v>
+      <c r="T460" t="n">
+        <v>1</v>
       </c>
       <c r="U460" t="n">
         <v>0</v>
       </c>
-      <c r="V460" t="b">
+      <c r="V460" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35814,13 +35813,13 @@
       <c r="S461" s="2" t="n">
         <v>43502</v>
       </c>
-      <c r="T461" s="3" t="n">
-        <v>-51</v>
+      <c r="T461" t="n">
+        <v>0</v>
       </c>
       <c r="U461" t="n">
         <v>0</v>
       </c>
-      <c r="V461" t="b">
+      <c r="V461" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35888,13 +35887,13 @@
       <c r="S462" s="2" t="n">
         <v>43563</v>
       </c>
-      <c r="T462" s="3" t="n">
-        <v>-116</v>
+      <c r="T462" t="n">
+        <v>0</v>
       </c>
       <c r="U462" t="n">
         <v>0</v>
       </c>
-      <c r="V462" t="b">
+      <c r="V462" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35962,13 +35961,13 @@
       <c r="S463" s="2" t="n">
         <v>44906</v>
       </c>
-      <c r="T463" s="3" t="n">
-        <v>-34</v>
+      <c r="T463" t="n">
+        <v>0</v>
       </c>
       <c r="U463" t="n">
         <v>0</v>
       </c>
-      <c r="V463" t="b">
+      <c r="V463" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36036,13 +36035,13 @@
       <c r="S464" s="2" t="n">
         <v>43851</v>
       </c>
-      <c r="T464" s="3" t="n">
-        <v>-99</v>
+      <c r="T464" t="n">
+        <v>0</v>
       </c>
       <c r="U464" t="n">
         <v>0</v>
       </c>
-      <c r="V464" t="b">
+      <c r="V464" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36110,13 +36109,13 @@
       <c r="S465" s="2" t="n">
         <v>44487</v>
       </c>
-      <c r="T465" s="3" t="n">
-        <v>-111</v>
+      <c r="T465" t="n">
+        <v>0</v>
       </c>
       <c r="U465" t="n">
         <v>0</v>
       </c>
-      <c r="V465" t="b">
+      <c r="V465" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36184,13 +36183,13 @@
       <c r="S466" s="2" t="n">
         <v>44383</v>
       </c>
-      <c r="T466" s="3" t="n">
-        <v>-43</v>
+      <c r="T466" t="n">
+        <v>0</v>
       </c>
       <c r="U466" t="n">
         <v>0</v>
       </c>
-      <c r="V466" t="b">
+      <c r="V466" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36258,13 +36257,13 @@
       <c r="S467" s="2" t="n">
         <v>43927</v>
       </c>
-      <c r="T467" s="3" t="n">
-        <v>-78</v>
+      <c r="T467" t="n">
+        <v>0</v>
       </c>
       <c r="U467" t="n">
         <v>0</v>
       </c>
-      <c r="V467" t="b">
+      <c r="V467" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36332,13 +36331,13 @@
       <c r="S468" s="2" t="n">
         <v>45091</v>
       </c>
-      <c r="T468" s="3" t="n">
-        <v>-48</v>
+      <c r="T468" t="n">
+        <v>0</v>
       </c>
       <c r="U468" t="n">
         <v>0</v>
       </c>
-      <c r="V468" t="b">
+      <c r="V468" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36406,13 +36405,13 @@
       <c r="S469" s="2" t="n">
         <v>44991</v>
       </c>
-      <c r="T469" s="3" t="n">
-        <v>-170</v>
+      <c r="T469" t="n">
+        <v>0</v>
       </c>
       <c r="U469" t="n">
         <v>0</v>
       </c>
-      <c r="V469" t="b">
+      <c r="V469" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36484,13 +36483,13 @@
       <c r="S470" s="2" t="n">
         <v>44765</v>
       </c>
-      <c r="T470" s="3" t="n">
-        <v>7</v>
+      <c r="T470" t="n">
+        <v>1</v>
       </c>
       <c r="U470" t="n">
         <v>0</v>
       </c>
-      <c r="V470" t="b">
+      <c r="V470" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36558,13 +36557,13 @@
       <c r="S471" s="2" t="n">
         <v>43614</v>
       </c>
-      <c r="T471" s="3" t="n">
-        <v>-11</v>
+      <c r="T471" t="n">
+        <v>0</v>
       </c>
       <c r="U471" t="n">
         <v>0</v>
       </c>
-      <c r="V471" t="b">
+      <c r="V471" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36632,13 +36631,13 @@
       <c r="S472" s="2" t="n">
         <v>43457</v>
       </c>
-      <c r="T472" s="3" t="n">
-        <v>-109</v>
+      <c r="T472" t="n">
+        <v>0</v>
       </c>
       <c r="U472" t="n">
         <v>0</v>
       </c>
-      <c r="V472" t="b">
+      <c r="V472" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36706,13 +36705,13 @@
       <c r="S473" s="2" t="n">
         <v>44633</v>
       </c>
-      <c r="T473" s="3" t="n">
-        <v>-16</v>
+      <c r="T473" t="n">
+        <v>0</v>
       </c>
       <c r="U473" t="n">
         <v>0</v>
       </c>
-      <c r="V473" t="b">
+      <c r="V473" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36780,13 +36779,13 @@
       <c r="S474" s="2" t="n">
         <v>43717</v>
       </c>
-      <c r="T474" s="3" t="n">
-        <v>-78</v>
+      <c r="T474" t="n">
+        <v>0</v>
       </c>
       <c r="U474" t="n">
         <v>0</v>
       </c>
-      <c r="V474" t="b">
+      <c r="V474" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36854,13 +36853,13 @@
       <c r="S475" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="T475" s="3" t="n">
-        <v>-17</v>
+      <c r="T475" t="n">
+        <v>0</v>
       </c>
       <c r="U475" t="n">
         <v>0</v>
       </c>
-      <c r="V475" t="b">
+      <c r="V475" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36928,13 +36927,13 @@
       <c r="S476" s="2" t="n">
         <v>44346</v>
       </c>
-      <c r="T476" s="3" t="n">
-        <v>-155</v>
+      <c r="T476" t="n">
+        <v>0</v>
       </c>
       <c r="U476" t="n">
         <v>0</v>
       </c>
-      <c r="V476" t="b">
+      <c r="V476" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37002,13 +37001,13 @@
       <c r="S477" s="2" t="n">
         <v>45018</v>
       </c>
-      <c r="T477" s="3" t="n">
-        <v>-133</v>
+      <c r="T477" t="n">
+        <v>0</v>
       </c>
       <c r="U477" t="n">
         <v>0</v>
       </c>
-      <c r="V477" t="b">
+      <c r="V477" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37076,13 +37075,13 @@
       <c r="S478" s="2" t="n">
         <v>44204</v>
       </c>
-      <c r="T478" s="3" t="n">
-        <v>-81</v>
+      <c r="T478" t="n">
+        <v>0</v>
       </c>
       <c r="U478" t="n">
         <v>0</v>
       </c>
-      <c r="V478" t="b">
+      <c r="V478" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37150,13 +37149,13 @@
       <c r="S479" s="2" t="n">
         <v>44696</v>
       </c>
-      <c r="T479" s="3" t="n">
-        <v>-65</v>
+      <c r="T479" t="n">
+        <v>0</v>
       </c>
       <c r="U479" t="n">
         <v>0</v>
       </c>
-      <c r="V479" t="b">
+      <c r="V479" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37224,13 +37223,13 @@
       <c r="S480" s="2" t="n">
         <v>44702</v>
       </c>
-      <c r="T480" s="3" t="n">
-        <v>-94</v>
+      <c r="T480" t="n">
+        <v>0</v>
       </c>
       <c r="U480" t="n">
         <v>0</v>
       </c>
-      <c r="V480" t="b">
+      <c r="V480" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37302,13 +37301,13 @@
       <c r="S481" s="2" t="n">
         <v>43398</v>
       </c>
-      <c r="T481" s="3" t="n">
+      <c r="T481" t="n">
         <v>0</v>
       </c>
       <c r="U481" t="n">
         <v>0</v>
       </c>
-      <c r="V481" t="b">
+      <c r="V481" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37376,13 +37375,13 @@
       <c r="S482" s="2" t="n">
         <v>44443</v>
       </c>
-      <c r="T482" s="3" t="n">
-        <v>-105</v>
+      <c r="T482" t="n">
+        <v>0</v>
       </c>
       <c r="U482" t="n">
         <v>0</v>
       </c>
-      <c r="V482" t="b">
+      <c r="V482" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37450,13 +37449,13 @@
       <c r="S483" s="2" t="n">
         <v>44047</v>
       </c>
-      <c r="T483" s="3" t="n">
-        <v>-173</v>
+      <c r="T483" t="n">
+        <v>0</v>
       </c>
       <c r="U483" t="n">
         <v>0</v>
       </c>
-      <c r="V483" t="b">
+      <c r="V483" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37524,13 +37523,13 @@
       <c r="S484" s="2" t="n">
         <v>43863</v>
       </c>
-      <c r="T484" s="3" t="n">
-        <v>-156</v>
+      <c r="T484" t="n">
+        <v>0</v>
       </c>
       <c r="U484" t="n">
         <v>0</v>
       </c>
-      <c r="V484" t="b">
+      <c r="V484" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37598,13 +37597,13 @@
       <c r="S485" s="2" t="n">
         <v>43432</v>
       </c>
-      <c r="T485" s="3" t="n">
-        <v>-124</v>
+      <c r="T485" t="n">
+        <v>0</v>
       </c>
       <c r="U485" t="n">
         <v>0</v>
       </c>
-      <c r="V485" t="b">
+      <c r="V485" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37672,13 +37671,13 @@
       <c r="S486" s="2" t="n">
         <v>44888</v>
       </c>
-      <c r="T486" s="3" t="n">
-        <v>-32</v>
+      <c r="T486" t="n">
+        <v>0</v>
       </c>
       <c r="U486" t="n">
         <v>0</v>
       </c>
-      <c r="V486" t="b">
+      <c r="V486" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37746,13 +37745,13 @@
       <c r="S487" s="2" t="n">
         <v>44063</v>
       </c>
-      <c r="T487" s="3" t="n">
-        <v>-109</v>
+      <c r="T487" t="n">
+        <v>0</v>
       </c>
       <c r="U487" t="n">
         <v>0</v>
       </c>
-      <c r="V487" t="b">
+      <c r="V487" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37820,13 +37819,13 @@
       <c r="S488" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="T488" s="3" t="n">
-        <v>-92</v>
+      <c r="T488" t="n">
+        <v>0</v>
       </c>
       <c r="U488" t="n">
         <v>0</v>
       </c>
-      <c r="V488" t="b">
+      <c r="V488" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37894,13 +37893,13 @@
       <c r="S489" s="2" t="n">
         <v>44714</v>
       </c>
-      <c r="T489" s="3" t="n">
-        <v>-44</v>
+      <c r="T489" t="n">
+        <v>0</v>
       </c>
       <c r="U489" t="n">
         <v>0</v>
       </c>
-      <c r="V489" t="b">
+      <c r="V489" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37968,13 +37967,13 @@
       <c r="S490" s="2" t="n">
         <v>45011</v>
       </c>
-      <c r="T490" s="3" t="n">
-        <v>-103</v>
+      <c r="T490" t="n">
+        <v>0</v>
       </c>
       <c r="U490" t="n">
         <v>0</v>
       </c>
-      <c r="V490" t="b">
+      <c r="V490" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38046,13 +38045,13 @@
       <c r="S491" s="2" t="n">
         <v>44839</v>
       </c>
-      <c r="T491" s="3" t="n">
-        <v>-102</v>
+      <c r="T491" t="n">
+        <v>0</v>
       </c>
       <c r="U491" t="n">
         <v>0</v>
       </c>
-      <c r="V491" t="b">
+      <c r="V491" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38124,13 +38123,13 @@
       <c r="S492" s="2" t="n">
         <v>43693</v>
       </c>
-      <c r="T492" s="3" t="n">
-        <v>-172</v>
+      <c r="T492" t="n">
+        <v>0</v>
       </c>
       <c r="U492" t="n">
         <v>0</v>
       </c>
-      <c r="V492" t="b">
+      <c r="V492" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38198,13 +38197,13 @@
       <c r="S493" s="2" t="n">
         <v>44177</v>
       </c>
-      <c r="T493" s="3" t="n">
-        <v>-47</v>
+      <c r="T493" t="n">
+        <v>0</v>
       </c>
       <c r="U493" t="n">
         <v>0</v>
       </c>
-      <c r="V493" t="b">
+      <c r="V493" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38272,13 +38271,13 @@
       <c r="S494" s="2" t="n">
         <v>44550</v>
       </c>
-      <c r="T494" s="3" t="n">
-        <v>-80</v>
+      <c r="T494" t="n">
+        <v>0</v>
       </c>
       <c r="U494" t="n">
         <v>0</v>
       </c>
-      <c r="V494" t="b">
+      <c r="V494" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38346,13 +38345,13 @@
       <c r="S495" s="2" t="n">
         <v>44117</v>
       </c>
-      <c r="T495" s="3" t="n">
-        <v>-79</v>
+      <c r="T495" t="n">
+        <v>0</v>
       </c>
       <c r="U495" t="n">
         <v>0</v>
       </c>
-      <c r="V495" t="b">
+      <c r="V495" t="n">
         <v>0</v>
       </c>
     </row>
